--- a/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
+++ b/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Rent</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -152,6 +155,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -723,127 +727,127 @@
             <c:numRef>
               <c:f>Sheet1!$N$2:$N$42</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>0.80738585223340165</c:v>
+                  <c:v>0.78397968171476839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32987418603282714</c:v>
+                  <c:v>0.31300538416027812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22884059759304615</c:v>
+                  <c:v>0.20938206279291893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18154821729329795</c:v>
+                  <c:v>0.16391290226085961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15233134305817628</c:v>
+                  <c:v>0.13837403412515145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13362216576399852</c:v>
+                  <c:v>0.12201978804482107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12061832863266109</c:v>
+                  <c:v>0.1106524911462359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1110569759928184</c:v>
+                  <c:v>0.10229421294428985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10373213531930689</c:v>
+                  <c:v>9.5890829726664212E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7942199520390738E-2</c:v>
+                  <c:v>9.0829076551493401E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1107184356356678</c:v>
+                  <c:v>0.10419511329907022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10506560158939676</c:v>
+                  <c:v>9.902960380453428E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10031766518853127</c:v>
+                  <c:v>9.4690990790108315E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6274421427307619E-2</c:v>
+                  <c:v>9.0996326816691356E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.27906492557381E-2</c:v>
+                  <c:v>8.7812908812523544E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.9758448059305301E-2</c:v>
+                  <c:v>8.5042137139123564E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7095972325080193E-2</c:v>
+                  <c:v>8.2609221323316162E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.4740014580919495E-2</c:v>
+                  <c:v>8.0456402343204156E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2640985543624271E-2</c:v>
+                  <c:v>7.8538365484940517E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.075943376534063E-2</c:v>
+                  <c:v>7.6819059993795138E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9063580738195499E-2</c:v>
+                  <c:v>7.5269446651487146E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.7527541827813615E-2</c:v>
+                  <c:v>7.3865872064305838E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6130020274239693E-2</c:v>
+                  <c:v>7.2588875240473652E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4853333730726293E-2</c:v>
+                  <c:v>7.1422298040783802E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.3682678578048028E-2</c:v>
+                  <c:v>7.0352612908637938E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.2605566906647392E-2</c:v>
+                  <c:v>6.9368408384038849E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.1611390666518476E-2</c:v>
+                  <c:v>6.8459990823527619E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0691080690299737E-2</c:v>
+                  <c:v>6.7619072815309475E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.9836837339763966E-2</c:v>
+                  <c:v>6.6838527043876911E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9041915817244989E-2</c:v>
+                  <c:v>6.6112190107480831E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.7951668774359972E-2</c:v>
+                  <c:v>6.5085920000000033E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.7951668774359986E-2</c:v>
+                  <c:v>6.5085920000000047E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.7951668774359986E-2</c:v>
+                  <c:v>6.5085920000000061E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.795166877436E-2</c:v>
+                  <c:v>6.5085920000000075E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7951668774359944E-2</c:v>
+                  <c:v>6.5085920000000033E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.795166877435993E-2</c:v>
+                  <c:v>6.5085920000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7951668774359916E-2</c:v>
+                  <c:v>6.5085920000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.795166877436E-2</c:v>
+                  <c:v>6.5085920000000089E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.7951668774359944E-2</c:v>
+                  <c:v>6.5085920000000033E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.7951668774360027E-2</c:v>
+                  <c:v>6.5085920000000103E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1115,561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-9683.8799999999974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9338.9819999999963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8983.7370599999977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8617.8347717999932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8240.9554149539981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7852.7696774026153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7452.9383677246897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7041.1121187564313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6616.9310823191245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6180.024614788701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5730.0109532323659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1786.0168818293369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1308.5973882842118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-816.85530993273824</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-310.36096923072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>211.32820169235856</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>748.6680477431255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1302.1280891754268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1872.1919318506916</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2459.3576898062111</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3064.1384205003906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3687.0625731154087</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4328.6744503088739</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4989.5346838181376</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5670.2207243326902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6371.3273460626697</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7093.4671664445468</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7837.2711814378818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8603.3893168810155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9392.4909963874379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10205.265726279062</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28742.423698067436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29604.696409009463</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30492.837301279753</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31407.622420318141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32349.851092927689</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33320.346625715523</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34319.957024486983</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35349.555735221598</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36410.042407278248</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37502.343679496596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0921-414E-AA7E-DB7A5EB63905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1318376591"/>
+        <c:axId val="1318378287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1318376591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318378287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1318378287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318376591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1654,20 +2212,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>562068</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>150890</xdr:rowOff>
+      <xdr:rowOff>188613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>729306</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>716731</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>125742</xdr:rowOff>
+      <xdr:rowOff>163465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1687,6 +2761,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>562070</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>752360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163466</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE81AE4B-8293-A74D-8812-18647D8736BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1992,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2012,9 +3122,10 @@
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2057,8 +3168,11 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -2102,8 +3216,12 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="8">
+        <f>12*(C2+D2+E2+F2+G2)</f>
+        <v>-9683.8799999999974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -2118,11 +3236,11 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E3" s="5">
-        <f>-2062.95-C3</f>
-        <v>-587.94999999999982</v>
+        <f>E2*(1+B3)</f>
+        <v>-605.58849999999984</v>
       </c>
       <c r="F3" s="5">
-        <f>F2*(1+B3)</f>
+        <f t="shared" ref="F3:F34" si="4">F2*(1+B3)</f>
         <v>-467.62</v>
       </c>
       <c r="G3" s="5">
@@ -2142,7 +3260,7 @@
         <v>-322153.48973825335</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K34" si="4">K2*(1+B3)</f>
+        <f t="shared" ref="K3:K34" si="5">K2*(1+B3)</f>
         <v>347625</v>
       </c>
       <c r="L3" s="5">
@@ -2151,14 +3269,18 @@
       </c>
       <c r="M3" s="8">
         <f>L3-L2+12*(C3+D3+E3+F3+G3)</f>
-        <v>7301.1902617466512</v>
-      </c>
-      <c r="N3" s="11">
+        <v>7089.528261746651</v>
+      </c>
+      <c r="N3" s="13">
         <f>M3/L2</f>
-        <v>0.80738585223340165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.78397968171476839</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" ref="O3:O66" si="6">12*(C3+D3+E3+F3+G3)</f>
+        <v>-9338.9819999999963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -2173,15 +3295,15 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E4" s="5">
-        <f>-2062.95-C4</f>
-        <v>-587.94999999999982</v>
+        <f t="shared" ref="E4:E67" si="7">E3*(1+B4)</f>
+        <v>-623.75615499999981</v>
       </c>
       <c r="F4" s="5">
-        <f>F3*(1+B4)</f>
+        <f t="shared" si="4"/>
         <v>-481.64860000000004</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G67" si="5">G3*(1+B3)</f>
+        <f t="shared" ref="G4:G67" si="8">G3*(1+B3)</f>
         <v>2121.8000000000002</v>
       </c>
       <c r="H4" s="10">
@@ -2197,7 +3319,7 @@
         <v>-315625.78282363288</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>358053.75</v>
       </c>
       <c r="L4" s="5">
@@ -2205,15 +3327,19 @@
         <v>42427.967176367121</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M67" si="6">L4-L3+12*(C4+D4+E4+F4+G4)</f>
-        <v>8402.3937146204789</v>
-      </c>
-      <c r="N4" s="11">
-        <f t="shared" ref="N4:N67" si="7">M4/L3</f>
-        <v>0.32987418603282714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M4:M67" si="9">L4-L3+12*(C4+D4+E4+F4+G4)</f>
+        <v>7972.7198546204763</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" ref="N4:N67" si="10">M4/L3</f>
+        <v>0.31300538416027812</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="6"/>
+        <v>-8983.7370599999977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -2228,15 +3354,15 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E5" s="5">
-        <f>-2048.67-C5</f>
-        <v>-573.67000000000007</v>
+        <f t="shared" si="7"/>
+        <v>-642.46883964999984</v>
       </c>
       <c r="F5" s="5">
-        <f>F4*(1+B5)</f>
+        <f t="shared" si="4"/>
         <v>-496.09805800000004</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2185.4540000000002</v>
       </c>
       <c r="H5" s="10">
@@ -2252,7 +3378,7 @@
         <v>-308865.90526433487</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>368795.36249999999</v>
       </c>
       <c r="L5" s="5">
@@ -2260,15 +3386,19 @@
         <v>59929.457235665119</v>
       </c>
       <c r="M5" s="8">
+        <f t="shared" si="9"/>
+        <v>8883.6552874980043</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="10"/>
+        <v>0.20938206279291893</v>
+      </c>
+      <c r="O5" s="8">
         <f t="shared" si="6"/>
-        <v>9709.2413632979988</v>
-      </c>
-      <c r="N5" s="11">
-        <f t="shared" si="7"/>
-        <v>0.22884059759304615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-8617.8347717999932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -2283,15 +3413,15 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E6" s="5">
-        <f>-2048.67-C6</f>
-        <v>-573.67000000000007</v>
+        <f t="shared" si="7"/>
+        <v>-661.74290483949983</v>
       </c>
       <c r="F6" s="5">
-        <f>F5*(1+B6)</f>
+        <f t="shared" si="4"/>
         <v>-510.98099974000007</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2251.0176200000001</v>
       </c>
       <c r="H6" s="10">
@@ -2307,7 +3437,7 @@
         <v>-301865.59945796494</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>379859.223375</v>
       </c>
       <c r="L6" s="5">
@@ -2315,15 +3445,19 @@
         <v>77993.62391703506</v>
       </c>
       <c r="M6" s="8">
+        <f t="shared" si="9"/>
+        <v>9823.2112664159431</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="10"/>
+        <v>0.16391290226085961</v>
+      </c>
+      <c r="O6" s="8">
         <f t="shared" si="6"/>
-        <v>10880.086124489939</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="7"/>
-        <v>0.18154821729329795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-8240.9554149539981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -2338,15 +3472,15 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E7" s="5">
-        <f>E6*1.03</f>
-        <v>-590.88010000000008</v>
+        <f t="shared" si="7"/>
+        <v>-681.59519198468479</v>
       </c>
       <c r="F7" s="12">
-        <f>F6*(1+B7)</f>
+        <f t="shared" si="4"/>
         <v>-526.31042973220008</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2318.5481486000003</v>
       </c>
       <c r="H7" s="10">
@@ -2362,7 +3496,7 @@
         <v>-294616.31410437229</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>391255.00007625</v>
       </c>
       <c r="L7" s="5">
@@ -2370,15 +3504,19 @@
         <v>96638.685971877712</v>
       </c>
       <c r="M7" s="8">
+        <f t="shared" si="9"/>
+        <v>10792.292377440037</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="10"/>
+        <v>0.13837403412515145</v>
+      </c>
+      <c r="O7" s="8">
         <f t="shared" si="6"/>
-        <v>11880.873481256251</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="7"/>
-        <v>0.15233134305817628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-7852.7696774026153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -2387,22 +3525,22 @@
         <v>0.03</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C32" si="8">C7</f>
+        <f t="shared" ref="C8:C32" si="11">C7</f>
         <v>-1475</v>
       </c>
       <c r="D8" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E71" si="9">E7*1.03</f>
-        <v>-608.60650300000009</v>
+        <f t="shared" si="7"/>
+        <v>-702.0430477442253</v>
       </c>
       <c r="F8" s="5">
-        <f>F7*(1+B8)</f>
+        <f t="shared" si="4"/>
         <v>-542.09974262416608</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2388.1045930580003</v>
       </c>
       <c r="H8" s="10">
@@ -2418,7 +3556,7 @@
         <v>-287109.19375971658</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>402992.65007853752</v>
       </c>
       <c r="L8" s="5">
@@ -2426,15 +3564,19 @@
         <v>115883.45631882094</v>
       </c>
       <c r="M8" s="8">
+        <f t="shared" si="9"/>
+        <v>11791.831979218541</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="10"/>
+        <v>0.12201978804482107</v>
+      </c>
+      <c r="O8" s="8">
         <f t="shared" si="6"/>
-        <v>12913.070516149242</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="7"/>
-        <v>0.13362216576399852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-7452.9383677246897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -2443,22 +3585,22 @@
         <v>0.03</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1475</v>
       </c>
       <c r="D9" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="9"/>
-        <v>-626.86469809000016</v>
+        <f t="shared" si="7"/>
+        <v>-723.10433917655212</v>
       </c>
       <c r="F9" s="5">
-        <f>F8*(1+B9)</f>
+        <f t="shared" si="4"/>
         <v>-558.36273490289113</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2459.7477308497405</v>
       </c>
       <c r="H9" s="10">
@@ -2474,7 +3616,7 @@
         <v>-279335.06801900273</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>415082.42958089366</v>
       </c>
       <c r="L9" s="5">
@@ -2482,15 +3624,19 @@
         <v>135747.36156189092</v>
       </c>
       <c r="M9" s="8">
+        <f t="shared" si="9"/>
+        <v>12822.79312431355</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="10"/>
+        <v>0.1106524911462359</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" si="6"/>
-        <v>13977.668817352171</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="7"/>
-        <v>0.12061832863266109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-7041.1121187564313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -2499,22 +3645,22 @@
         <v>0.03</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1475</v>
       </c>
       <c r="D10" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="9"/>
-        <v>-645.67063903270014</v>
+        <f t="shared" si="7"/>
+        <v>-744.79746935184869</v>
       </c>
       <c r="F10" s="5">
-        <f>F9*(1+B10)</f>
+        <f t="shared" si="4"/>
         <v>-575.11361694997788</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2533.5401627752326</v>
       </c>
       <c r="H10" s="10">
@@ -2530,7 +3676,7 @@
         <v>-271284.44031387288</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>427534.90246832051</v>
       </c>
       <c r="L10" s="5">
@@ -2538,15 +3684,19 @@
         <v>156250.46215444762</v>
       </c>
       <c r="M10" s="8">
+        <f t="shared" si="9"/>
+        <v>13886.169510237576</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="10"/>
+        <v>0.10229421294428985</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="6"/>
-        <v>15075.69147406736</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="7"/>
-        <v>0.1110569759928184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-6616.9310823191245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -2555,22 +3705,22 @@
         <v>0.03</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1475</v>
       </c>
       <c r="D11" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="9"/>
-        <v>-665.04075820368121</v>
+        <f t="shared" si="7"/>
+        <v>-767.14139343240413</v>
       </c>
       <c r="F11" s="5">
-        <f>F10*(1+B11)</f>
+        <f t="shared" si="4"/>
         <v>-592.3670254584772</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2609.5463676584895</v>
       </c>
       <c r="H11" s="10">
@@ -2586,7 +3736,7 @@
         <v>-262947.47631196911</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>440360.94954237016</v>
       </c>
       <c r="L11" s="5">
@@ -2594,15 +3744,19 @@
         <v>177413.47323040105</v>
       </c>
       <c r="M11" s="8">
+        <f t="shared" si="9"/>
+        <v>14982.986461164728</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="10"/>
+        <v>9.5890829726664212E-2</v>
+      </c>
+      <c r="O11" s="8">
         <f t="shared" si="6"/>
-        <v>16208.1940839094</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="7"/>
-        <v>0.10373213531930689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-6180.024614788701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -2611,22 +3765,22 @@
         <v>0.03</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1475</v>
       </c>
       <c r="D12" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E12" s="5">
-        <f>E11*1.03</f>
-        <v>-684.9919809497917</v>
+        <f t="shared" si="7"/>
+        <v>-790.15563523537628</v>
       </c>
       <c r="F12" s="5">
-        <f>F11*(1+B12)</f>
+        <f t="shared" si="4"/>
         <v>-610.13803622223156</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2687.8327586882442</v>
       </c>
       <c r="H12" s="10">
@@ -2642,7 +3796,7 @@
         <v>-254313.99190369746</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>453571.7780286413</v>
       </c>
       <c r="L12" s="5">
@@ -2650,15 +3804,19 @@
         <v>199257.78612494384</v>
       </c>
       <c r="M12" s="8">
+        <f t="shared" si="9"/>
+        <v>16114.301941310423</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="10"/>
+        <v>9.0829076551493401E-2</v>
+      </c>
+      <c r="O12" s="8">
         <f t="shared" si="6"/>
-        <v>17376.265792737442</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="7"/>
-        <v>9.7942199520390738E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-5730.0109532323659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2023</v>
       </c>
@@ -2667,22 +3825,22 @@
         <v>0.03</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="7"/>
+        <v>-813.8603042924376</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>-628.44217730889852</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="9"/>
-        <v>-705.54174037828545</v>
-      </c>
-      <c r="F13" s="5">
-        <f>F12*(1+B13)</f>
-        <v>-628.44217730889852</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="5"/>
         <v>2768.4677414488915</v>
       </c>
       <c r="H13" s="10">
@@ -2698,7 +3856,7 @@
         <v>-245373.44076171692</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>467178.93136950053</v>
       </c>
       <c r="L13" s="5">
@@ -2706,15 +3864,19 @@
         <v>221805.49060778361</v>
       </c>
       <c r="M13" s="8">
+        <f t="shared" si="9"/>
+        <v>20761.687601010424</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="10"/>
+        <v>0.10419511329907022</v>
+      </c>
+      <c r="O13" s="8">
         <f t="shared" si="6"/>
-        <v>22061.510367980256</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="7"/>
-        <v>0.1107184356356678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1786.0168818293369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2024</v>
       </c>
@@ -2723,22 +3885,22 @@
         <v>0.03</v>
       </c>
       <c r="C14" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="7"/>
+        <v>-838.27611342121077</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>-647.29544262816546</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="9"/>
-        <v>-726.70799258963405</v>
-      </c>
-      <c r="F14" s="5">
-        <f>F13*(1+B14)</f>
-        <v>-647.29544262816546</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="5"/>
         <v>2851.5217736923582</v>
       </c>
       <c r="H14" s="10">
@@ -2754,7 +3916,7 @@
         <v>-236114.90145795856</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>481194.29931058554</v>
       </c>
       <c r="L14" s="5">
@@ -2762,15 +3924,19 @@
         <v>245079.39785262698</v>
       </c>
       <c r="M14" s="8">
+        <f t="shared" si="9"/>
+        <v>21965.309856559161</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="10"/>
+        <v>9.902960380453428E-2</v>
+      </c>
+      <c r="O14" s="8">
         <f t="shared" si="6"/>
-        <v>23304.127306538077</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="7"/>
-        <v>0.10506560158939676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1308.5973882842118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2025</v>
       </c>
@@ -2779,22 +3945,22 @@
         <v>0.03</v>
       </c>
       <c r="C15" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="7"/>
+        <v>-863.42439682384713</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>-666.7143059070105</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="9"/>
-        <v>-748.50923236732308</v>
-      </c>
-      <c r="F15" s="5">
-        <f>F14*(1+B15)</f>
-        <v>-666.7143059070105</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="5"/>
         <v>2937.0674269031292</v>
       </c>
       <c r="H15" s="10">
@@ -2810,7 +3976,7 @@
         <v>-226527.06412243503</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>495630.12828990311</v>
       </c>
       <c r="L15" s="5">
@@ -2818,15 +3984,19 @@
         <v>269103.06416746811</v>
       </c>
       <c r="M15" s="8">
+        <f t="shared" si="9"/>
+        <v>23206.811004908392</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="10"/>
+        <v>9.4690990790108315E-2</v>
+      </c>
+      <c r="O15" s="8">
         <f t="shared" si="6"/>
-        <v>24585.792978386682</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="7"/>
-        <v>0.10031766518853127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-816.85530993273824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2026</v>
       </c>
@@ -2835,22 +4005,22 @@
         <v>0.03</v>
       </c>
       <c r="C16" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="7"/>
+        <v>-889.32712872856257</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>-686.7157350842208</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="9"/>
-        <v>-770.96450933834274</v>
-      </c>
-      <c r="F16" s="5">
-        <f>F15*(1+B16)</f>
-        <v>-686.7157350842208</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="5"/>
         <v>3025.1794497102233</v>
       </c>
       <c r="H16" s="10">
@@ -2866,7 +4036,7 @@
         <v>-216598.21662754533</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>510499.03213860019</v>
       </c>
       <c r="L16" s="5">
@@ -2874,15 +4044,19 @@
         <v>293900.81551105483</v>
       </c>
       <c r="M16" s="8">
+        <f t="shared" si="9"/>
+        <v>24487.390374355993</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="10"/>
+        <v>9.0996326816691356E-2</v>
+      </c>
+      <c r="O16" s="8">
         <f t="shared" si="6"/>
-        <v>25907.74180703863</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="7"/>
-        <v>9.6274421427307619E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-310.36096923072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2027</v>
       </c>
@@ -2891,22 +4065,22 @@
         <v>0.03</v>
       </c>
       <c r="C17" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="7"/>
+        <v>-916.0069425904195</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>-707.31720713674747</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="9"/>
-        <v>-794.09344461849309</v>
-      </c>
-      <c r="F17" s="5">
-        <f>F16*(1+B17)</f>
-        <v>-707.31720713674747</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="5"/>
         <v>3115.9348332015302</v>
       </c>
       <c r="H17" s="10">
@@ -2922,7 +4096,7 @@
         <v>-206316.23028099717</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>525814.0031027582</v>
       </c>
       <c r="L17" s="5">
@@ -2930,15 +4104,19 @@
         <v>319497.77282176103</v>
       </c>
       <c r="M17" s="8">
+        <f t="shared" si="9"/>
+        <v>25808.285512398561</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="10"/>
+        <v>8.7812908812523544E-2</v>
+      </c>
+      <c r="O17" s="8">
         <f t="shared" si="6"/>
-        <v>27271.247488061679</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="7"/>
-        <v>9.27906492557381E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>211.32820169235856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2028</v>
       </c>
@@ -2947,22 +4125,22 @@
         <v>0.03</v>
       </c>
       <c r="C18" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="7"/>
+        <v>-943.48715086813206</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>-728.53672335084991</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="9"/>
-        <v>-817.91624795704786</v>
-      </c>
-      <c r="F18" s="5">
-        <f>F17*(1+B18)</f>
-        <v>-728.53672335084991</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="5"/>
         <v>3209.412878197576</v>
       </c>
       <c r="H18" s="10">
@@ -2978,7 +4156,7 @@
         <v>-195668.54500987026</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>541588.42319584091</v>
       </c>
       <c r="L18" s="5">
@@ -2986,15 +4164,19 @@
         <v>345919.87818597065</v>
       </c>
       <c r="M18" s="8">
+        <f t="shared" si="9"/>
+        <v>27170.773411952749</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="10"/>
+        <v>8.5042137139123564E-2</v>
+      </c>
+      <c r="O18" s="8">
         <f t="shared" si="6"/>
-        <v>28677.62424688576</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="7"/>
-        <v>8.9758448059305301E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>748.6680477431255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2029</v>
       </c>
@@ -3003,22 +4185,22 @@
         <v>0.03</v>
       </c>
       <c r="C19" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="7"/>
+        <v>-971.79176539417608</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>-750.39282505137544</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="9"/>
-        <v>-842.45373539575928</v>
-      </c>
-      <c r="F19" s="5">
-        <f>F18*(1+B19)</f>
-        <v>-750.39282505137544</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="5"/>
         <v>3305.6952645435035</v>
       </c>
       <c r="H19" s="10">
@@ -3034,7 +4216,7 @@
         <v>-184642.15401772154</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>557836.07589171617</v>
       </c>
       <c r="L19" s="5">
@@ -3042,15 +4224,19 @@
         <v>373193.92187399464</v>
       </c>
       <c r="M19" s="8">
+        <f t="shared" si="9"/>
+        <v>28576.171777199415</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="10"/>
+        <v>8.2609221323316162E-2</v>
+      </c>
+      <c r="O19" s="8">
         <f t="shared" si="6"/>
-        <v>30128.228137180413</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="7"/>
-        <v>8.7095972325080193E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1302.1280891754268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2030</v>
       </c>
@@ -3059,22 +4245,22 @@
         <v>0.03</v>
       </c>
       <c r="C20" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="7"/>
+        <v>-1000.9455183560013</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>-772.90460980291675</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="9"/>
-        <v>-867.72734745763205</v>
-      </c>
-      <c r="F20" s="5">
-        <f>F19*(1+B20)</f>
-        <v>-772.90460980291675</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
         <v>3404.8661224798088</v>
       </c>
       <c r="H20" s="10">
@@ -3090,7 +4276,7 @@
         <v>-173223.58789599134</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>574571.15816846769</v>
       </c>
       <c r="L20" s="5">
@@ -3098,15 +4284,19 @@
         <v>401347.57027247635</v>
       </c>
       <c r="M20" s="8">
+        <f t="shared" si="9"/>
+        <v>30025.840330332408</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="10"/>
+        <v>8.0456402343204156E-2</v>
+      </c>
+      <c r="O20" s="8">
         <f t="shared" si="6"/>
-        <v>31624.458381112836</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="7"/>
-        <v>8.4740014580919495E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1872.1919318506916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2031</v>
       </c>
@@ -3115,22 +4305,22 @@
         <v>0.03</v>
       </c>
       <c r="C21" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="7"/>
+        <v>-1030.9738839066815</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>-796.09174809700426</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="9"/>
-        <v>-893.75916788136101</v>
-      </c>
-      <c r="F21" s="5">
-        <f>F20*(1+B21)</f>
-        <v>-796.09174809700426</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="5"/>
         <v>3507.0121061542031</v>
       </c>
       <c r="H21" s="6">
@@ -3146,7 +4336,7 @@
         <v>-161398.89817029901</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>591808.29291352176</v>
       </c>
       <c r="L21" s="7">
@@ -3154,15 +4344,19 @@
         <v>430409.39474322274</v>
       </c>
       <c r="M21" s="8">
+        <f t="shared" si="9"/>
+        <v>31521.182160552598</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="10"/>
+        <v>7.8538365484940517E-2</v>
+      </c>
+      <c r="O21" s="8">
         <f t="shared" si="6"/>
-        <v>33167.758752856447</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="7"/>
-        <v>8.2640985543624271E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2459.3576898062111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2032</v>
       </c>
@@ -3171,22 +4365,22 @@
         <v>0.03</v>
       </c>
       <c r="C22" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="7"/>
+        <v>-1061.9031004238821</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>-819.9745005399144</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="9"/>
-        <v>-920.57194291780183</v>
-      </c>
-      <c r="F22" s="5">
-        <f>F21*(1+B22)</f>
-        <v>-819.9745005399144</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
         <v>3612.2224693388293</v>
       </c>
       <c r="H22" s="6">
@@ -3202,7 +4396,7 @@
         <v>-149153.64026153236</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>609562.54170092742</v>
       </c>
       <c r="L22" s="7">
@@ -3210,15 +4404,19 @@
         <v>460408.90143939503</v>
       </c>
       <c r="M22" s="8">
+        <f t="shared" si="9"/>
+        <v>33063.645116672684</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="10"/>
+        <v>7.6819059993795138E-2</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="6"/>
-        <v>34759.619006745648</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="7"/>
-        <v>8.075943376534063E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3064.1384205003906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2033</v>
       </c>
@@ -3227,22 +4425,22 @@
         <v>0.03</v>
       </c>
       <c r="C23" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="7"/>
+        <v>-1093.7601934365985</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>-844.57373555611184</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="9"/>
-        <v>-948.18910120533587</v>
-      </c>
-      <c r="F23" s="5">
-        <f>F22*(1+B23)</f>
-        <v>-844.57373555611184</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="5"/>
         <v>3720.5891434189944</v>
       </c>
       <c r="H23" s="6">
@@ -3258,7 +4456,7 @@
         <v>-136472.85584091322</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>627849.41795195523</v>
       </c>
       <c r="L23" s="7">
@@ -3266,15 +4464,19 @@
         <v>491376.56211104197</v>
       </c>
       <c r="M23" s="8">
+        <f t="shared" si="9"/>
+        <v>34654.723244762346</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="10"/>
+        <v>7.5269446651487146E-2</v>
+      </c>
+      <c r="O23" s="8">
         <f t="shared" si="6"/>
-        <v>36401.5763515375</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="7"/>
-        <v>7.9063580738195499E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3687.0625731154087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2034</v>
       </c>
@@ -3283,22 +4485,22 @@
         <v>0.03</v>
       </c>
       <c r="C24" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="7"/>
+        <v>-1126.5729992396964</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>-869.91094762279522</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="9"/>
-        <v>-976.63477424149596</v>
-      </c>
-      <c r="F24" s="5">
-        <f>F23*(1+B24)</f>
-        <v>-869.91094762279522</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="5"/>
         <v>3832.2068177215642</v>
       </c>
       <c r="H24" s="6">
@@ -3314,7 +4516,7 @@
         <v>-123341.05455748811</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>646684.90049051389</v>
       </c>
       <c r="L24" s="7">
@@ -3322,15 +4524,19 @@
         <v>523343.84593302576</v>
       </c>
       <c r="M24" s="8">
+        <f t="shared" si="9"/>
+        <v>36295.958272292657</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="10"/>
+        <v>7.3865872064305838E-2</v>
+      </c>
+      <c r="O24" s="8">
         <f t="shared" si="6"/>
-        <v>38095.216972271061</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" si="7"/>
-        <v>7.7527541827813615E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4328.6744503088739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2035</v>
       </c>
@@ -3339,22 +4545,22 @@
         <v>0.03</v>
       </c>
       <c r="C25" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="7"/>
+        <v>-1160.3701892168874</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>-896.00827605147913</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="9"/>
-        <v>-1005.9338174687408</v>
-      </c>
-      <c r="F25" s="5">
-        <f>F24*(1+B25)</f>
-        <v>-896.00827605147913</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="5"/>
         <v>3947.1730222532115</v>
       </c>
       <c r="H25" s="6">
@@ -3370,7 +4576,7 @@
         <v>-109742.19511571953</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>666085.44750522927</v>
       </c>
       <c r="L25" s="7">
@@ -3378,15 +4584,19 @@
         <v>556343.2523895097</v>
       </c>
       <c r="M25" s="8">
+        <f t="shared" si="9"/>
+        <v>37988.941140302071</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" si="10"/>
+        <v>7.2588875240473652E-2</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" si="6"/>
-        <v>39842.177601279829</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" si="7"/>
-        <v>7.6130020274239693E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4989.5346838181376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2036</v>
       </c>
@@ -3395,22 +4605,22 @@
         <v>0.03</v>
       </c>
       <c r="C26" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="7"/>
+        <v>-1195.1812948933941</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>-922.8885243330235</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="9"/>
-        <v>-1036.111831992803</v>
-      </c>
-      <c r="F26" s="5">
-        <f>F25*(1+B26)</f>
-        <v>-922.8885243330235</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="5"/>
         <v>4065.588212920808</v>
       </c>
       <c r="H26" s="6">
@@ -3426,7 +4636,7 @@
         <v>-95659.66568006661</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>686068.01093038614</v>
       </c>
       <c r="L26" s="7">
@@ -3434,15 +4644,19 @@
         <v>590408.34525031957</v>
       </c>
       <c r="M26" s="8">
+        <f t="shared" si="9"/>
+        <v>39735.313585142569</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1422298040783802E-2</v>
+      </c>
+      <c r="O26" s="8">
         <f t="shared" si="6"/>
-        <v>41644.147139949659</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="7"/>
-        <v>7.4853333730726293E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5670.2207243326902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2037</v>
       </c>
@@ -3451,22 +4665,22 @@
         <v>0.03</v>
       </c>
       <c r="C27" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="7"/>
+        <v>-1231.036733740196</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>-950.57518006301427</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="9"/>
-        <v>-1067.1951869525872</v>
-      </c>
-      <c r="F27" s="5">
-        <f>F26*(1+B27)</f>
-        <v>-950.57518006301427</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="5"/>
         <v>4187.5558593084324</v>
       </c>
       <c r="H27" s="6">
@@ -3482,7 +4696,7 @@
         <v>-81076.263582615604</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>706650.05125829775</v>
       </c>
       <c r="L27" s="7">
@@ -3490,15 +4704,19 @@
         <v>625573.78767568211</v>
       </c>
       <c r="M27" s="8">
+        <f t="shared" si="9"/>
+        <v>41536.769771425199</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="10"/>
+        <v>7.0352612908637938E-2</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="6"/>
-        <v>43502.868332876504</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="7"/>
-        <v>7.3682678578048028E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6371.3273460626697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2038</v>
       </c>
@@ -3507,22 +4725,22 @@
         <v>0.03</v>
       </c>
       <c r="C28" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="7"/>
+        <v>-1267.9678357524019</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>-979.09243546490472</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="9"/>
-        <v>-1099.2110425611647</v>
-      </c>
-      <c r="F28" s="5">
-        <f>F27*(1+B28)</f>
-        <v>-979.09243546490472</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="5"/>
         <v>4313.1825350876852</v>
       </c>
       <c r="H28" s="6">
@@ -3538,7 +4756,7 @@
         <v>-65974.174308972491</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>727849.55279604672</v>
       </c>
       <c r="L28" s="7">
@@ -3546,15 +4764,19 @@
         <v>661875.37848707428</v>
       </c>
       <c r="M28" s="8">
+        <f t="shared" si="9"/>
+        <v>43395.057977836725</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="10"/>
+        <v>6.9368408384038849E-2</v>
+      </c>
+      <c r="O28" s="8">
         <f t="shared" si="6"/>
-        <v>45420.139496131567</v>
-      </c>
-      <c r="N28" s="11">
-        <f t="shared" si="7"/>
-        <v>7.2605566906647392E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7093.4671664445468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2039</v>
       </c>
@@ -3563,22 +4785,22 @@
         <v>0.03</v>
       </c>
       <c r="C29" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="7"/>
+        <v>-1306.0068708249739</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>-1008.4652085288519</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="9"/>
-        <v>-1132.1873738379998</v>
-      </c>
-      <c r="F29" s="5">
-        <f>F28*(1+B29)</f>
-        <v>-1008.4652085288519</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="5"/>
         <v>4442.5780111403155</v>
       </c>
       <c r="H29" s="6">
@@ -3594,7 +4816,7 @@
         <v>-50334.94973674776</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>749685.03937992814</v>
       </c>
       <c r="L29" s="7">
@@ -3602,15 +4824,19 @@
         <v>699350.08964318037</v>
       </c>
       <c r="M29" s="8">
+        <f t="shared" si="9"/>
+        <v>45311.982337543974</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="10"/>
+        <v>6.8459990823527619E-2</v>
+      </c>
+      <c r="O29" s="8">
         <f t="shared" si="6"/>
-        <v>47397.816301387655</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="7"/>
-        <v>7.1611390666518476E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7837.2711814378818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>2040</v>
       </c>
@@ -3619,22 +4845,22 @@
         <v>0.03</v>
       </c>
       <c r="C30" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="7"/>
+        <v>-1345.1870769497232</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>-1038.7191647847176</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="9"/>
-        <v>-1166.1529950531399</v>
-      </c>
-      <c r="F30" s="5">
-        <f>F29*(1+B30)</f>
-        <v>-1038.7191647847176</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="5"/>
         <v>4575.8553514745254</v>
       </c>
       <c r="H30" s="6">
@@ -3650,7 +4876,7 @@
         <v>-34139.485600051208</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>772175.59056132601</v>
       </c>
       <c r="L30" s="7">
@@ -3658,15 +4884,19 @@
         <v>738036.10496127477</v>
       </c>
       <c r="M30" s="8">
+        <f t="shared" si="9"/>
+        <v>47289.404634975421</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="10"/>
+        <v>6.7619072815309475E-2</v>
+      </c>
+      <c r="O30" s="8">
         <f t="shared" si="6"/>
-        <v>49437.81361773442</v>
-      </c>
-      <c r="N30" s="11">
-        <f t="shared" si="7"/>
-        <v>7.0691080690299737E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8603.3893168810155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2041</v>
       </c>
@@ -3675,22 +4905,22 @@
         <v>0.03</v>
       </c>
       <c r="C31" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="7"/>
+        <v>-1385.542689258215</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>-1069.8807397282592</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="9"/>
-        <v>-1201.137584904734</v>
-      </c>
-      <c r="F31" s="5">
-        <f>F30*(1+B31)</f>
-        <v>-1069.8807397282592</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="5"/>
         <v>4713.1310120187609</v>
       </c>
       <c r="H31" s="6">
@@ -3706,7 +4936,7 @@
         <v>-17367.998152466684</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>795340.8582781658</v>
       </c>
       <c r="L31" s="7">
@@ -3714,15 +4944,19 @@
         <v>777972.86012569908</v>
       </c>
       <c r="M31" s="8">
+        <f t="shared" si="9"/>
+        <v>49329.246160811745</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="10"/>
+        <v>6.6838527043876911E-2</v>
+      </c>
+      <c r="O31" s="8">
         <f t="shared" si="6"/>
-        <v>51542.107413053513</v>
-      </c>
-      <c r="N31" s="11">
-        <f t="shared" si="7"/>
-        <v>6.9836837339763966E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9392.4909963874379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2042</v>
       </c>
@@ -3731,22 +4965,22 @@
         <v>0.03</v>
       </c>
       <c r="C32" s="5">
+        <f t="shared" si="11"/>
+        <v>-1475</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="7"/>
+        <v>-1427.1089699359616</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>-1101.9771619201069</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="8"/>
-        <v>-1475</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="9"/>
-        <v>-1237.1717124518761</v>
-      </c>
-      <c r="F32" s="5">
-        <f>F31*(1+B32)</f>
-        <v>-1101.9771619201069</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="5"/>
         <v>4854.5249423793239</v>
       </c>
       <c r="H32" s="6">
@@ -3762,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>819201.08402651083</v>
       </c>
       <c r="L32" s="7">
@@ -3770,15 +5004,19 @@
         <v>819201.08402651083</v>
       </c>
       <c r="M32" s="8">
+        <f t="shared" si="9"/>
+        <v>51433.489627090807</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="10"/>
+        <v>6.6112190107480831E-2</v>
+      </c>
+      <c r="O32" s="8">
         <f t="shared" si="6"/>
-        <v>53712.736716899832</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="7"/>
-        <v>6.9041915817244989E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10205.265726279062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2043</v>
       </c>
@@ -3793,22 +5031,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="9"/>
-        <v>-1274.2868638254324</v>
+        <f t="shared" si="7"/>
+        <v>-1469.9222390340406</v>
       </c>
       <c r="F33" s="5">
-        <f>F32*(1+B33)</f>
+        <f t="shared" si="4"/>
         <v>-1135.0364767777103</v>
       </c>
       <c r="G33" s="5">
+        <f t="shared" si="8"/>
+        <v>5000.1606906507041</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
         <f t="shared" si="5"/>
-        <v>5000.1606906507041</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="4"/>
         <v>843777.11654730618</v>
       </c>
       <c r="L33" s="7">
@@ -3816,15 +5054,19 @@
         <v>843777.11654730618</v>
       </c>
       <c r="M33" s="8">
+        <f t="shared" si="9"/>
+        <v>53318.45621886279</v>
+      </c>
+      <c r="N33" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O33" s="8">
         <f t="shared" si="6"/>
-        <v>55666.080721366096</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359972E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>28742.423698067436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2044</v>
       </c>
@@ -3839,22 +5081,22 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="9"/>
-        <v>-1312.5154697401954</v>
+        <f t="shared" si="7"/>
+        <v>-1514.0199062050617</v>
       </c>
       <c r="F34" s="5">
-        <f>F33*(1+B34)</f>
+        <f t="shared" si="4"/>
         <v>-1169.0875710810417</v>
       </c>
       <c r="G34" s="5">
+        <f t="shared" si="8"/>
+        <v>5150.1655113702254</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
         <f t="shared" si="5"/>
-        <v>5150.1655113702254</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <f t="shared" si="4"/>
         <v>869090.43004372541</v>
       </c>
       <c r="L34" s="7">
@@ -3862,15 +5104,19 @@
         <v>869090.43004372541</v>
       </c>
       <c r="M34" s="8">
+        <f t="shared" si="9"/>
+        <v>54918.009905428691</v>
+      </c>
+      <c r="N34" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000047E-2</v>
+      </c>
+      <c r="O34" s="8">
         <f t="shared" si="6"/>
-        <v>57336.063143007086</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359986E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>29604.696409009463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2045</v>
       </c>
@@ -3885,22 +5131,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="9"/>
-        <v>-1351.8909338324013</v>
+        <f t="shared" si="7"/>
+        <v>-1559.4405033912135</v>
       </c>
       <c r="F35" s="5">
-        <f>F34*(1+B35)</f>
+        <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
         <v>-1204.160198213473</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5304.6704767113324</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" ref="K35:K71" si="10">K34*(1+B35)</f>
+        <f t="shared" ref="K35:K71" si="13">K34*(1+B35)</f>
         <v>895163.14294503722</v>
       </c>
       <c r="L35" s="7">
@@ -3908,15 +5154,19 @@
         <v>895163.14294503722</v>
       </c>
       <c r="M35" s="8">
+        <f t="shared" si="9"/>
+        <v>56565.550202591563</v>
+      </c>
+      <c r="N35" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000061E-2</v>
+      </c>
+      <c r="O35" s="8">
         <f t="shared" si="6"/>
-        <v>59056.145037297305</v>
-      </c>
-      <c r="N35" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359986E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30492.837301279753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2046</v>
       </c>
@@ -3931,22 +5181,22 @@
         <v>0</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="9"/>
-        <v>-1392.4476618473734</v>
+        <f t="shared" si="7"/>
+        <v>-1606.22371849295</v>
       </c>
       <c r="F36" s="5">
-        <f>F35*(1+B36)</f>
+        <f t="shared" si="12"/>
         <v>-1240.2850041598772</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5463.8105910126724</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>922018.0372333884</v>
       </c>
       <c r="L36" s="7">
@@ -3954,15 +5204,19 @@
         <v>922018.0372333884</v>
       </c>
       <c r="M36" s="8">
+        <f t="shared" si="9"/>
+        <v>58262.516708669318</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000075E-2</v>
+      </c>
+      <c r="O36" s="8">
         <f t="shared" si="6"/>
-        <v>60827.829388416241</v>
-      </c>
-      <c r="N36" s="11">
-        <f t="shared" si="7"/>
-        <v>6.795166877436E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31407.622420318141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2047</v>
       </c>
@@ -3977,22 +5231,22 @@
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="9"/>
-        <v>-1434.2210917027946</v>
+        <f t="shared" si="7"/>
+        <v>-1654.4104300477386</v>
       </c>
       <c r="F37" s="5">
-        <f>F36*(1+B37)</f>
+        <f t="shared" si="12"/>
         <v>-1277.4935542846736</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5627.7249087430528</v>
       </c>
       <c r="J37" s="7">
         <v>0</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>949678.57835039007</v>
       </c>
       <c r="L37" s="7">
@@ -4000,15 +5254,19 @@
         <v>949678.57835039007</v>
       </c>
       <c r="M37" s="8">
+        <f t="shared" si="9"/>
+        <v>60010.392209929363</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O37" s="8">
         <f t="shared" si="6"/>
-        <v>62652.664270068686</v>
-      </c>
-      <c r="N37" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359944E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32349.851092927689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2048</v>
       </c>
@@ -4023,22 +5281,22 @@
         <v>0</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="9"/>
-        <v>-1477.2477244538786</v>
+        <f t="shared" si="7"/>
+        <v>-1704.0427429491708</v>
       </c>
       <c r="F38" s="5">
-        <f>F37*(1+B38)</f>
+        <f t="shared" si="12"/>
         <v>-1315.8183609132138</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5796.5566560053448</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>978168.93570090178</v>
       </c>
       <c r="L38" s="7">
@@ -4046,15 +5304,19 @@
         <v>978168.93570090178</v>
       </c>
       <c r="M38" s="8">
+        <f t="shared" si="9"/>
+        <v>61810.703976227232</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000019E-2</v>
+      </c>
+      <c r="O38" s="8">
         <f t="shared" si="6"/>
-        <v>64532.244198170738</v>
-      </c>
-      <c r="N38" s="11">
-        <f t="shared" si="7"/>
-        <v>6.795166877435993E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>33320.346625715523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2049</v>
       </c>
@@ -4069,22 +5331,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="9"/>
-        <v>-1521.5651561874949</v>
+        <f t="shared" si="7"/>
+        <v>-1755.164025237646</v>
       </c>
       <c r="F39" s="5">
-        <f>F38*(1+B39)</f>
+        <f t="shared" si="12"/>
         <v>-1355.2929117406102</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5970.4533556855049</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1007514.0037719288</v>
       </c>
       <c r="L39" s="7">
@@ -4092,15 +5354,19 @@
         <v>1007514.0037719288</v>
       </c>
       <c r="M39" s="8">
+        <f t="shared" si="9"/>
+        <v>63665.025095514036</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000005E-2</v>
+      </c>
+      <c r="O39" s="8">
         <f t="shared" si="6"/>
-        <v>66468.211524115846</v>
-      </c>
-      <c r="N39" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34319.957024486983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2050</v>
       </c>
@@ -4115,22 +5381,22 @@
         <v>0</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="9"/>
-        <v>-1567.2121108731199</v>
+        <f t="shared" si="7"/>
+        <v>-1807.8189459947755</v>
       </c>
       <c r="F40" s="5">
-        <f>F39*(1+B40)</f>
+        <f t="shared" si="12"/>
         <v>-1395.9516990928284</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6149.5669563560705</v>
       </c>
       <c r="J40" s="7">
         <v>0</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1037739.4238850868</v>
       </c>
       <c r="L40" s="7">
@@ -4138,15 +5404,19 @@
         <v>1037739.4238850868</v>
       </c>
       <c r="M40" s="8">
+        <f t="shared" si="9"/>
+        <v>65574.975848379545</v>
+      </c>
+      <c r="N40" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000089E-2</v>
+      </c>
+      <c r="O40" s="8">
         <f t="shared" si="6"/>
-        <v>68462.257869839406</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" si="7"/>
-        <v>6.795166877436E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>35349.555735221598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2051</v>
       </c>
@@ -4161,22 +5431,22 @@
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="9"/>
-        <v>-1614.2284741993135</v>
+        <f t="shared" si="7"/>
+        <v>-1862.0535143746188</v>
       </c>
       <c r="F41" s="5">
-        <f>F40*(1+B41)</f>
+        <f t="shared" si="12"/>
         <v>-1437.8302500656134</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6334.0539650467526</v>
       </c>
       <c r="J41" s="7">
         <v>0</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1068871.6066016394</v>
       </c>
       <c r="L41" s="7">
@@ -4184,15 +5454,19 @@
         <v>1068871.6066016394</v>
       </c>
       <c r="M41" s="8">
+        <f t="shared" si="9"/>
+        <v>67542.225123830882</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O41" s="8">
         <f t="shared" si="6"/>
-        <v>70516.125605934532</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359944E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>36410.042407278248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2052</v>
       </c>
@@ -4207,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="9"/>
-        <v>-1662.655328425293</v>
+        <f t="shared" si="7"/>
+        <v>-1917.9151198058573</v>
       </c>
       <c r="F42" s="5">
-        <f>F41*(1+B42)</f>
+        <f t="shared" si="12"/>
         <v>-1480.9651575675819</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6524.0755839981557</v>
       </c>
       <c r="J42" s="7">
         <v>0</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1100937.7547996887</v>
       </c>
       <c r="L42" s="7">
@@ -4230,15 +5504,19 @@
         <v>1100937.7547996887</v>
       </c>
       <c r="M42" s="8">
+        <f t="shared" si="9"/>
+        <v>69568.491877545879</v>
+      </c>
+      <c r="N42" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000103E-2</v>
+      </c>
+      <c r="O42" s="8">
         <f t="shared" si="6"/>
-        <v>72631.609374112653</v>
-      </c>
-      <c r="N42" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774360027E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>37502.343679496596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2053</v>
       </c>
@@ -4253,22 +5531,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="9"/>
-        <v>-1712.5349882780517</v>
+        <f t="shared" si="7"/>
+        <v>-1975.4525734000331</v>
       </c>
       <c r="F43" s="5">
-        <f>F42*(1+B43)</f>
+        <f t="shared" si="12"/>
         <v>-1525.3941122946094</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6719.7978515181003</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1133965.8874436794</v>
       </c>
       <c r="L43" s="7">
@@ -4276,15 +5554,19 @@
         <v>1133965.8874436794</v>
       </c>
       <c r="M43" s="8">
+        <f t="shared" si="9"/>
+        <v>71655.546633872174</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000019E-2</v>
+      </c>
+      <c r="O43" s="8">
         <f t="shared" si="6"/>
-        <v>74810.557655335957</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359944E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38627.41398988149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2054</v>
       </c>
@@ -4299,22 +5581,22 @@
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="9"/>
-        <v>-1763.9110379263934</v>
+        <f t="shared" si="7"/>
+        <v>-2034.7161506020341</v>
       </c>
       <c r="F44" s="5">
-        <f>F43*(1+B44)</f>
+        <f t="shared" si="12"/>
         <v>-1571.1559356634477</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6921.3917870636433</v>
       </c>
       <c r="J44" s="7">
         <v>0</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1167984.8640669899</v>
       </c>
       <c r="L44" s="7">
@@ -4322,15 +5604,19 @@
         <v>1167984.8640669899</v>
       </c>
       <c r="M44" s="8">
+        <f t="shared" si="9"/>
+        <v>73805.213032888409</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000075E-2</v>
+      </c>
+      <c r="O44" s="8">
         <f t="shared" si="6"/>
-        <v>77054.874384996103</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774360013E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39786.236409577934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2055</v>
       </c>
@@ -4345,22 +5631,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="9"/>
-        <v>-1816.8283690641854</v>
+        <f t="shared" si="7"/>
+        <v>-2095.7576351200951</v>
       </c>
       <c r="F45" s="5">
-        <f>F44*(1+B45)</f>
+        <f t="shared" si="12"/>
         <v>-1618.2906137333512</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7129.033540675553</v>
       </c>
       <c r="J45" s="7">
         <v>0</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1203024.4099889996</v>
       </c>
       <c r="L45" s="7">
@@ -4368,15 +5654,19 @@
         <v>1203024.4099889996</v>
       </c>
       <c r="M45" s="8">
+        <f t="shared" si="9"/>
+        <v>76019.369423875018</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O45" s="8">
         <f t="shared" si="6"/>
-        <v>79366.520616545939</v>
-      </c>
-      <c r="N45" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359958E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>40979.823501865278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2056</v>
       </c>
@@ -4391,22 +5681,22 @@
         <v>0</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="9"/>
-        <v>-1871.3332201361111</v>
+        <f t="shared" si="7"/>
+        <v>-2158.6303641736981</v>
       </c>
       <c r="F46" s="5">
-        <f>F45*(1+B46)</f>
+        <f t="shared" si="12"/>
         <v>-1666.8393321453518</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7342.9045468958202</v>
       </c>
       <c r="J46" s="7">
         <v>0</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1239115.1422886697</v>
       </c>
       <c r="L46" s="7">
@@ -4414,15 +5704,19 @@
         <v>1239115.1422886697</v>
       </c>
       <c r="M46" s="8">
+        <f t="shared" si="9"/>
+        <v>78299.950506591354</v>
+      </c>
+      <c r="N46" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000103E-2</v>
+      </c>
+      <c r="O46" s="8">
         <f t="shared" si="6"/>
-        <v>81747.516235042393</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774360027E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42209.218206921243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2057</v>
       </c>
@@ -4437,22 +5731,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="9"/>
-        <v>-1927.4732167401944</v>
+        <f t="shared" si="7"/>
+        <v>-2223.3892750989089</v>
       </c>
       <c r="F47" s="5">
-        <f>F46*(1+B47)</f>
+        <f t="shared" si="12"/>
         <v>-1716.8445121097125</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7563.1916833026953</v>
       </c>
       <c r="J47" s="7">
         <v>0</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1276288.5965573299</v>
       </c>
       <c r="L47" s="7">
@@ -4460,15 +5754,19 @@
         <v>1276288.5965573299</v>
       </c>
       <c r="M47" s="8">
+        <f t="shared" si="9"/>
+        <v>80648.949021789042</v>
+      </c>
+      <c r="N47" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000061E-2</v>
+      </c>
+      <c r="O47" s="8">
         <f t="shared" si="6"/>
-        <v>84199.941722093616</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359972E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43475.494753128885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2058</v>
       </c>
@@ -4483,22 +5781,22 @@
         <v>0</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="9"/>
-        <v>-1985.2974132424004</v>
+        <f t="shared" si="7"/>
+        <v>-2290.0909533518761</v>
       </c>
       <c r="F48" s="5">
-        <f>F47*(1+B48)</f>
+        <f t="shared" si="12"/>
         <v>-1768.3498474730038</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7790.0874338017766</v>
       </c>
       <c r="J48" s="7">
         <v>0</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1314577.2544540497</v>
       </c>
       <c r="L48" s="7">
@@ -4506,15 +5804,19 @@
         <v>1314577.2544540497</v>
       </c>
       <c r="M48" s="8">
+        <f t="shared" si="9"/>
+        <v>83068.417492442633</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999992E-2</v>
+      </c>
+      <c r="O48" s="8">
         <f t="shared" si="6"/>
-        <v>86725.939973756351</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44779.75959572276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2059</v>
       </c>
@@ -4529,22 +5831,22 @@
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="9"/>
-        <v>-2044.8563356396724</v>
+        <f t="shared" si="7"/>
+        <v>-2358.7936819524325</v>
       </c>
       <c r="F49" s="5">
-        <f>F48*(1+B49)</f>
+        <f t="shared" si="12"/>
         <v>-1821.4003428971939</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8023.7900568158302</v>
       </c>
       <c r="J49" s="7">
         <v>0</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1354014.5720876714</v>
       </c>
       <c r="L49" s="7">
@@ -4552,15 +5854,19 @@
         <v>1354014.5720876714</v>
       </c>
       <c r="M49" s="8">
+        <f t="shared" si="9"/>
+        <v>85560.470017216066</v>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000103E-2</v>
+      </c>
+      <c r="O49" s="8">
         <f t="shared" si="6"/>
-        <v>89327.718172969195</v>
-      </c>
-      <c r="N49" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774360027E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+        <v>46123.152383594439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2060</v>
       </c>
@@ -4575,22 +5881,22 @@
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="9"/>
-        <v>-2106.2020257088625</v>
+        <f t="shared" si="7"/>
+        <v>-2429.5574924110056</v>
       </c>
       <c r="F50" s="5">
-        <f>F49*(1+B50)</f>
+        <f t="shared" si="12"/>
         <v>-1876.0423531841097</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8264.5037585203045</v>
       </c>
       <c r="J50" s="7">
         <v>0</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1394635.0092503016</v>
       </c>
       <c r="L50" s="7">
@@ -4598,15 +5904,19 @@
         <v>1394635.0092503016</v>
       </c>
       <c r="M50" s="8">
+        <f t="shared" si="9"/>
+        <v>88127.284117732517</v>
+      </c>
+      <c r="N50" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000075E-2</v>
+      </c>
+      <c r="O50" s="8">
         <f t="shared" si="6"/>
-        <v>92007.549718158247</v>
-      </c>
-      <c r="N50" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774360013E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47506.846955102264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2061</v>
       </c>
@@ -4621,22 +5931,22 @@
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="9"/>
-        <v>-2169.3880864801285</v>
+        <f t="shared" si="7"/>
+        <v>-2502.4442171833357</v>
       </c>
       <c r="F51" s="5">
-        <f>F50*(1+B51)</f>
+        <f t="shared" si="12"/>
         <v>-1932.3236237796332</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8512.4388712759137</v>
       </c>
       <c r="J51" s="7">
         <v>0</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1436474.0595278107</v>
       </c>
       <c r="L51" s="7">
@@ -4644,15 +5954,19 @@
         <v>1436474.0595278107</v>
       </c>
       <c r="M51" s="8">
+        <f t="shared" si="9"/>
+        <v>90771.10264126437</v>
+      </c>
+      <c r="N51" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999978E-2</v>
+      </c>
+      <c r="O51" s="8">
         <f t="shared" si="6"/>
-        <v>94767.776209702846</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359902E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>48932.052363755342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2062</v>
       </c>
@@ -4667,22 +5981,22 @@
         <v>0</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="9"/>
-        <v>-2234.4697290745326</v>
+        <f t="shared" si="7"/>
+        <v>-2577.5175436988357</v>
       </c>
       <c r="F52" s="5">
-        <f>F51*(1+B52)</f>
+        <f t="shared" si="12"/>
         <v>-1990.2933324930223</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8767.8120374141909</v>
       </c>
       <c r="J52" s="7">
         <v>0</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1479568.281313645</v>
       </c>
       <c r="L52" s="7">
@@ -4690,15 +6004,19 @@
         <v>1479568.281313645</v>
       </c>
       <c r="M52" s="8">
+        <f t="shared" si="9"/>
+        <v>93494.2357205023</v>
+      </c>
+      <c r="N52" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999978E-2</v>
+      </c>
+      <c r="O52" s="8">
         <f t="shared" si="6"/>
-        <v>97610.809495993919</v>
-      </c>
-      <c r="N52" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359889E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>50400.013934668001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2063</v>
       </c>
@@ -4713,22 +6031,22 @@
         <v>0</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="9"/>
-        <v>-2301.5038209467684</v>
+        <f t="shared" si="7"/>
+        <v>-2654.8430700098006</v>
       </c>
       <c r="F53" s="5">
-        <f>F52*(1+B53)</f>
+        <f t="shared" si="12"/>
         <v>-2050.0021324678128</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9030.8463985366161</v>
       </c>
       <c r="J53" s="7">
         <v>0</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1523955.3297530543</v>
       </c>
       <c r="L53" s="7">
@@ -4736,15 +6054,19 @@
         <v>1523955.3297530543</v>
       </c>
       <c r="M53" s="8">
+        <f t="shared" si="9"/>
+        <v>96299.062792117387</v>
+      </c>
+      <c r="N53" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999992E-2</v>
+      </c>
+      <c r="O53" s="8">
         <f t="shared" si="6"/>
-        <v>100539.13378087377</v>
-      </c>
-      <c r="N53" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <v>51912.014352708036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2064</v>
       </c>
@@ -4759,22 +6081,22 @@
         <v>0</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="9"/>
-        <v>-2370.5489355751715</v>
+        <f t="shared" si="7"/>
+        <v>-2734.4883621100948</v>
       </c>
       <c r="F54" s="5">
-        <f>F53*(1+B54)</f>
+        <f t="shared" si="12"/>
         <v>-2111.502196441847</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9301.771790492714</v>
       </c>
       <c r="J54" s="7">
         <v>0</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1569673.989645646</v>
       </c>
       <c r="L54" s="7">
@@ -4782,15 +6104,19 @@
         <v>1569673.989645646</v>
       </c>
       <c r="M54" s="8">
+        <f t="shared" si="9"/>
+        <v>99188.034675880917</v>
+      </c>
+      <c r="N54" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000005E-2</v>
+      </c>
+      <c r="O54" s="8">
         <f t="shared" si="6"/>
-        <v>103555.3077943</v>
-      </c>
-      <c r="N54" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>53469.37478328927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>2065</v>
       </c>
@@ -4805,22 +6131,22 @@
         <v>0</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="9"/>
-        <v>-2441.6654036424266</v>
+        <f t="shared" si="7"/>
+        <v>-2816.5230129733977</v>
       </c>
       <c r="F55" s="5">
-        <f>F54*(1+B55)</f>
+        <f t="shared" si="12"/>
         <v>-2174.8472623351026</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9580.8249442074957</v>
       </c>
       <c r="J55" s="7">
         <v>0</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1616764.2093350154</v>
       </c>
       <c r="L55" s="7">
@@ -4828,15 +6154,19 @@
         <v>1616764.2093350154</v>
       </c>
       <c r="M55" s="8">
+        <f t="shared" si="9"/>
+        <v>102163.67571615739</v>
+      </c>
+      <c r="N55" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O55" s="8">
         <f t="shared" si="6"/>
-        <v>106661.96702812903</v>
-      </c>
-      <c r="N55" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359944E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+        <v>55073.45602678795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>2066</v>
       </c>
@@ -4851,22 +6181,22 @@
         <v>0</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="9"/>
-        <v>-2514.9153657516995</v>
+        <f t="shared" si="7"/>
+        <v>-2901.0187033625998</v>
       </c>
       <c r="F56" s="5">
-        <f>F55*(1+B56)</f>
+        <f t="shared" si="12"/>
         <v>-2240.0926802051558</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9868.24969253372</v>
       </c>
       <c r="J56" s="7">
         <v>0</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1665267.1356150659</v>
       </c>
       <c r="L56" s="7">
@@ -4874,15 +6204,19 @@
         <v>1665267.1356150659</v>
       </c>
       <c r="M56" s="8">
+        <f t="shared" si="9"/>
+        <v>105228.58598764212</v>
+      </c>
+      <c r="N56" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O56" s="8">
         <f t="shared" si="6"/>
-        <v>109861.82603897291</v>
-      </c>
-      <c r="N56" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359944E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>56725.659707591578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>2067</v>
       </c>
@@ -4897,22 +6231,22 @@
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="9"/>
-        <v>-2590.3628267242507</v>
+        <f t="shared" si="7"/>
+        <v>-2988.0492644634778</v>
       </c>
       <c r="F57" s="5">
-        <f>F56*(1+B57)</f>
+        <f t="shared" si="12"/>
         <v>-2307.2954606113108</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10164.297183309733</v>
       </c>
       <c r="J57" s="7">
         <v>0</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1715225.1496835179</v>
       </c>
       <c r="L57" s="7">
@@ -4920,15 +6254,19 @@
         <v>1715225.1496835179</v>
       </c>
       <c r="M57" s="8">
+        <f t="shared" si="9"/>
+        <v>108385.44356727127</v>
+      </c>
+      <c r="N57" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999964E-2</v>
+      </c>
+      <c r="O57" s="8">
         <f t="shared" si="6"/>
-        <v>113157.68082014199</v>
-      </c>
-      <c r="N57" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359875E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>58427.429498819329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>2068</v>
       </c>
@@ -4943,22 +6281,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="9"/>
-        <v>-2668.0737115259781</v>
+        <f t="shared" si="7"/>
+        <v>-3077.6907423973821</v>
       </c>
       <c r="F58" s="5">
-        <f>F57*(1+B58)</f>
+        <f t="shared" si="12"/>
         <v>-2376.5143244296501</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10469.226098809026</v>
       </c>
       <c r="J58" s="7">
         <v>0</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1766681.9041740235</v>
       </c>
       <c r="L58" s="7">
@@ -4966,15 +6304,19 @@
         <v>1766681.9041740235</v>
       </c>
       <c r="M58" s="8">
+        <f t="shared" si="9"/>
+        <v>111637.0068742896</v>
+      </c>
+      <c r="N58" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000075E-2</v>
+      </c>
+      <c r="O58" s="8">
         <f t="shared" si="6"/>
-        <v>116552.41124474644</v>
-      </c>
-      <c r="N58" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359986E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <v>60180.252383783925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>2069</v>
       </c>
@@ -4989,22 +6331,22 @@
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="9"/>
-        <v>-2748.1159228717574</v>
+        <f t="shared" si="7"/>
+        <v>-3170.0214646693034</v>
       </c>
       <c r="F59" s="5">
-        <f>F58*(1+B59)</f>
+        <f t="shared" si="12"/>
         <v>-2447.8097541625398</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10783.302881773297</v>
       </c>
       <c r="J59" s="7">
         <v>0</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1819682.3612992442</v>
       </c>
       <c r="L59" s="7">
@@ -5012,15 +6354,19 @@
         <v>1819682.3612992442</v>
       </c>
       <c r="M59" s="8">
+        <f t="shared" si="9"/>
+        <v>114986.11708051813</v>
+      </c>
+      <c r="N59" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999978E-2</v>
+      </c>
+      <c r="O59" s="8">
         <f t="shared" si="6"/>
-        <v>120048.98358208868</v>
-      </c>
-      <c r="N59" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359902E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>61985.659955297451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>2070</v>
       </c>
@@ -5035,22 +6381,22 @@
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="9"/>
-        <v>-2830.5594005579101</v>
+        <f t="shared" si="7"/>
+        <v>-3265.1221086093828</v>
       </c>
       <c r="F60" s="5">
-        <f>F59*(1+B60)</f>
+        <f t="shared" si="12"/>
         <v>-2521.2440467874162</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11106.801968226497</v>
       </c>
       <c r="J60" s="7">
         <v>0</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1874272.8321382217</v>
       </c>
       <c r="L60" s="7">
@@ -5058,15 +6404,19 @@
         <v>1874272.8321382217</v>
       </c>
       <c r="M60" s="8">
+        <f t="shared" si="9"/>
+        <v>118435.70059293386</v>
+      </c>
+      <c r="N60" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000089E-2</v>
+      </c>
+      <c r="O60" s="8">
         <f t="shared" si="6"/>
-        <v>123650.45308955153</v>
-      </c>
-      <c r="N60" s="11">
-        <f t="shared" si="7"/>
-        <v>6.795166877436E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>63845.229753956366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2071</v>
       </c>
@@ -5081,22 +6431,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="9"/>
-        <v>-2915.4761825746473</v>
+        <f t="shared" si="7"/>
+        <v>-3363.0757718676646</v>
       </c>
       <c r="F61" s="5">
-        <f>F60*(1+B61)</f>
+        <f t="shared" si="12"/>
         <v>-2596.8813681910387</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11440.006027273292</v>
       </c>
       <c r="J61" s="7">
         <v>0</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1930501.0171023684</v>
       </c>
       <c r="L61" s="7">
@@ -5104,15 +6454,19 @@
         <v>1930501.0171023684</v>
       </c>
       <c r="M61" s="8">
+        <f t="shared" si="9"/>
+        <v>121988.77161072177</v>
+      </c>
+      <c r="N61" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000019E-2</v>
+      </c>
+      <c r="O61" s="8">
         <f t="shared" si="6"/>
-        <v>127359.96668223797</v>
-      </c>
-      <c r="N61" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359944E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <v>65760.586646575073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>2072</v>
       </c>
@@ -5127,22 +6481,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="9"/>
-        <v>-3002.9404680518869</v>
+        <f t="shared" si="7"/>
+        <v>-3463.9680450236947</v>
       </c>
       <c r="F62" s="5">
-        <f>F61*(1+B62)</f>
+        <f t="shared" si="12"/>
         <v>-2674.78780923677</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11783.206208091491</v>
       </c>
       <c r="J62" s="7">
         <v>0</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1988416.0476154394</v>
       </c>
       <c r="L62" s="7">
@@ -5150,15 +6504,19 @@
         <v>1988416.0476154394</v>
       </c>
       <c r="M62" s="8">
+        <f t="shared" si="9"/>
+        <v>125648.4347590433</v>
+      </c>
+      <c r="N62" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085919999999964E-2</v>
+      </c>
+      <c r="O62" s="8">
         <f t="shared" si="6"/>
-        <v>131180.76568270498</v>
-      </c>
-      <c r="N62" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359875E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>67733.404245972313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>2073</v>
       </c>
@@ -5173,22 +6531,22 @@
         <v>0</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="9"/>
-        <v>-3093.0286820934434</v>
+        <f t="shared" si="7"/>
+        <v>-3567.8870863744055</v>
       </c>
       <c r="F63" s="5">
-        <f>F62*(1+B63)</f>
+        <f t="shared" si="12"/>
         <v>-2755.031443513873</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12136.702394334236</v>
       </c>
       <c r="J63" s="7">
         <v>0</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2048068.5290439026</v>
       </c>
       <c r="L63" s="7">
@@ -5196,15 +6554,19 @@
         <v>2048068.5290439026</v>
       </c>
       <c r="M63" s="8">
+        <f t="shared" si="9"/>
+        <v>129417.88780181474</v>
+      </c>
+      <c r="N63" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000033E-2</v>
+      </c>
+      <c r="O63" s="8">
         <f t="shared" si="6"/>
-        <v>135116.18865318625</v>
-      </c>
-      <c r="N63" s="11">
-        <f t="shared" si="7"/>
-        <v>6.795166877435993E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>69765.406373351492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>2074</v>
       </c>
@@ -5219,22 +6581,22 @@
         <v>0</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="9"/>
-        <v>-3185.8195425562467</v>
+        <f t="shared" si="7"/>
+        <v>-3674.9236989656379</v>
       </c>
       <c r="F64" s="5">
-        <f>F63*(1+B64)</f>
+        <f t="shared" si="12"/>
         <v>-2837.6823868192891</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12500.803466164263</v>
       </c>
       <c r="J64" s="7">
         <v>0</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2109510.5849152198</v>
       </c>
       <c r="L64" s="7">
@@ -5242,15 +6604,19 @@
         <v>2109510.5849152198</v>
       </c>
       <c r="M64" s="8">
+        <f t="shared" si="9"/>
+        <v>133300.42443586921</v>
+      </c>
+      <c r="N64" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000047E-2</v>
+      </c>
+      <c r="O64" s="8">
         <f t="shared" si="6"/>
-        <v>139169.67431278189</v>
-      </c>
-      <c r="N64" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359958E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <v>71858.368564552031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>2075</v>
       </c>
@@ -5265,22 +6631,22 @@
         <v>0</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="9"/>
-        <v>-3281.3941288329343</v>
+        <f t="shared" si="7"/>
+        <v>-3785.1714099346073</v>
       </c>
       <c r="F65" s="5">
-        <f>F64*(1+B65)</f>
+        <f t="shared" si="12"/>
         <v>-2922.812858423868</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12875.827570149191</v>
       </c>
       <c r="J65" s="7">
         <v>0</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2172795.9024626766</v>
       </c>
       <c r="L65" s="7">
@@ -5288,15 +6654,19 @@
         <v>2172795.9024626766</v>
       </c>
       <c r="M65" s="8">
+        <f t="shared" si="9"/>
+        <v>137299.43716894541</v>
+      </c>
+      <c r="N65" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5085920000000103E-2</v>
+      </c>
+      <c r="O65" s="8">
         <f t="shared" si="6"/>
-        <v>143344.7645421655</v>
-      </c>
-      <c r="N65" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774360027E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>74014.119621488586</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>2076</v>
       </c>
@@ -5311,38 +6681,42 @@
         <v>0</v>
       </c>
       <c r="E66" s="5">
+        <f t="shared" si="7"/>
+        <v>-3898.7265522326456</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="12"/>
+        <v>-3010.497244176584</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="8"/>
+        <v>13262.102397253668</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <f t="shared" si="13"/>
+        <v>2237979.7795365569</v>
+      </c>
+      <c r="L66" s="7">
+        <f t="shared" ref="L66:L71" si="14">J66+K66</f>
+        <v>2237979.7795365569</v>
+      </c>
+      <c r="M66" s="8">
         <f t="shared" si="9"/>
-        <v>-3379.8359526979225</v>
-      </c>
-      <c r="F66" s="5">
-        <f>F65*(1+B66)</f>
-        <v>-3010.497244176584</v>
-      </c>
-      <c r="G66" s="5">
-        <f t="shared" si="5"/>
-        <v>13262.102397253668</v>
-      </c>
-      <c r="J66" s="7">
-        <v>0</v>
-      </c>
-      <c r="K66" s="7">
+        <v>141418.42028401355</v>
+      </c>
+      <c r="N66" s="13">
         <f t="shared" si="10"/>
-        <v>2237979.7795365569</v>
-      </c>
-      <c r="L66" s="7">
-        <f t="shared" ref="L66:L71" si="11">J66+K66</f>
-        <v>2237979.7795365569</v>
-      </c>
-      <c r="M66" s="8">
+        <v>6.5085919999999992E-2</v>
+      </c>
+      <c r="O66" s="8">
         <f t="shared" si="6"/>
-        <v>147645.10747843023</v>
-      </c>
-      <c r="N66" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>76234.54321013327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>2077</v>
       </c>
@@ -5357,38 +6731,42 @@
         <v>0</v>
       </c>
       <c r="E67" s="5">
+        <f t="shared" si="7"/>
+        <v>-4015.6883487996251</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="12"/>
+        <v>-3100.8121615018817</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="8"/>
+        <v>13659.965469171279</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <f t="shared" si="13"/>
+        <v>2305119.1729226536</v>
+      </c>
+      <c r="L67" s="7">
+        <f t="shared" si="14"/>
+        <v>2305119.1729226536</v>
+      </c>
+      <c r="M67" s="8">
         <f t="shared" si="9"/>
-        <v>-3481.2310312788604</v>
-      </c>
-      <c r="F67" s="5">
-        <f>F66*(1+B67)</f>
-        <v>-3100.8121615018817</v>
-      </c>
-      <c r="G67" s="5">
-        <f t="shared" si="5"/>
-        <v>13659.965469171279</v>
-      </c>
-      <c r="J67" s="7">
-        <v>0</v>
-      </c>
-      <c r="K67" s="7">
+        <v>145660.97289253396</v>
+      </c>
+      <c r="N67" s="13">
         <f t="shared" si="10"/>
-        <v>2305119.1729226536</v>
-      </c>
-      <c r="L67" s="7">
-        <f t="shared" si="11"/>
-        <v>2305119.1729226536</v>
-      </c>
-      <c r="M67" s="8">
-        <f t="shared" si="6"/>
-        <v>152074.46070278314</v>
-      </c>
-      <c r="N67" s="11">
-        <f t="shared" si="7"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6.5085919999999992E-2</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" ref="O67:O71" si="15">12*(C67+D67+E67+F67+G67)</f>
+        <v>78521.579506437265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>2078</v>
       </c>
@@ -5403,38 +6781,42 @@
         <v>0</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="9"/>
-        <v>-3585.6679622172264</v>
+        <f t="shared" ref="E68:E71" si="16">E67*(1+B68)</f>
+        <v>-4136.1589992636136</v>
       </c>
       <c r="F68" s="5">
-        <f>F67*(1+B68)</f>
+        <f t="shared" si="12"/>
         <v>-3193.8365263469382</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G71" si="12">G67*(1+B67)</f>
+        <f t="shared" ref="G68:G71" si="17">G67*(1+B67)</f>
         <v>14069.764433246417</v>
       </c>
       <c r="J68" s="7">
         <v>0</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2374272.7481103335</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2374272.7481103335</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" ref="M68:M71" si="13">L68-L67+12*(C68+D68+E68+F68+G68)</f>
-        <v>156636.69452386687</v>
-      </c>
-      <c r="N68" s="11">
-        <f t="shared" ref="N68:N71" si="14">M68/L67</f>
-        <v>6.7951668774360013E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M68:M71" si="18">L68-L67+12*(C68+D68+E68+F68+G68)</f>
+        <v>150030.80207931023</v>
+      </c>
+      <c r="N68" s="13">
+        <f t="shared" ref="N68:N71" si="19">M68/L67</f>
+        <v>6.5085920000000103E-2</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="15"/>
+        <v>80877.226891630387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>2079</v>
       </c>
@@ -5449,38 +6831,42 @@
         <v>0</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="9"/>
-        <v>-3693.2380010837433</v>
+        <f t="shared" si="16"/>
+        <v>-4260.2437692415224</v>
       </c>
       <c r="F69" s="5">
-        <f>F68*(1+B69)</f>
+        <f t="shared" si="12"/>
         <v>-3289.6516221373463</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>14491.85736624381</v>
       </c>
       <c r="J69" s="7">
         <v>0</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2445500.9305536435</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2445500.9305536435</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="13"/>
-        <v>161335.7953595827</v>
-      </c>
-      <c r="N69" s="11">
-        <f t="shared" si="14"/>
-        <v>6.795166877435993E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>154531.72614168935</v>
+      </c>
+      <c r="N69" s="13">
+        <f t="shared" si="19"/>
+        <v>6.5085920000000019E-2</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="15"/>
+        <v>83303.543698379304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2080</v>
       </c>
@@ -5495,38 +6881,42 @@
         <v>0</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="9"/>
-        <v>-3804.0351411162555</v>
+        <f t="shared" si="16"/>
+        <v>-4388.0510823187678</v>
       </c>
       <c r="F70" s="5">
-        <f>F69*(1+B70)</f>
+        <f t="shared" si="12"/>
         <v>-3388.3411708014669</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>14926.613087231124</v>
       </c>
       <c r="J70" s="7">
         <v>0</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2518865.9584702528</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2518865.9584702528</v>
       </c>
       <c r="M70" s="8">
-        <f t="shared" si="13"/>
-        <v>166175.86922037014</v>
-      </c>
-      <c r="N70" s="11">
-        <f t="shared" si="14"/>
-        <v>6.7951668774359916E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>159167.67792593996</v>
+      </c>
+      <c r="N70" s="13">
+        <f t="shared" si="19"/>
+        <v>6.5085919999999992E-2</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="15"/>
+        <v>85802.650009330668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>2081</v>
       </c>
@@ -5541,35 +6931,39 @@
         <v>0</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="9"/>
-        <v>-3918.1561953497435</v>
+        <f t="shared" si="16"/>
+        <v>-4519.6926147883314</v>
       </c>
       <c r="F71" s="5">
-        <f>F70*(1+B71)</f>
+        <f t="shared" si="12"/>
         <v>-3489.9914059255111</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>15374.411479848059</v>
       </c>
       <c r="J71" s="7">
         <v>0</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2594431.9372243606</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2594431.9372243606</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="13"/>
-        <v>171161.1452969815</v>
-      </c>
-      <c r="N71" s="11">
-        <f t="shared" si="14"/>
-        <v>6.7951668774360013E-2</v>
+        <f t="shared" si="18"/>
+        <v>163942.70826371844</v>
+      </c>
+      <c r="N71" s="13">
+        <f t="shared" si="19"/>
+        <v>6.5085920000000089E-2</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" si="15"/>
+        <v>88376.729509610595</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
+++ b/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
@@ -3104,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
+++ b/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,10 +754,10 @@
                   <c:v>0.10229421294428985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5890829726664212E-2</c:v>
+                  <c:v>0.11816583584190807</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0829076551493401E-2</c:v>
+                  <c:v>0.11044697781133749</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.10419511329907022</c:v>
@@ -1360,10 +1360,10 @@
                   <c:v>-6616.9310823191245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6180.024614788701</c:v>
+                  <c:v>-2699.5446147887014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5730.0109532323659</c:v>
+                  <c:v>-2249.5309532323663</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-1786.0168818293369</c:v>
@@ -3104,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3709,7 +3709,7 @@
         <v>-1475</v>
       </c>
       <c r="D11" s="5">
-        <v>-290.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="7"/>
@@ -3745,15 +3745,15 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" si="9"/>
-        <v>14982.986461164728</v>
+        <v>18463.466461164728</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="10"/>
-        <v>9.5890829726664212E-2</v>
+        <v>0.11816583584190807</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="6"/>
-        <v>-6180.024614788701</v>
+        <v>-2699.5446147887014</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3769,7 +3769,7 @@
         <v>-1475</v>
       </c>
       <c r="D12" s="5">
-        <v>-290.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="7"/>
@@ -3805,15 +3805,15 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" si="9"/>
-        <v>16114.301941310423</v>
+        <v>19594.781941310423</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="10"/>
-        <v>9.0829076551493401E-2</v>
+        <v>0.11044697781133749</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="6"/>
-        <v>-5730.0109532323659</v>
+        <v>-2249.5309532323663</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">

--- a/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
+++ b/excel/2/1420 Terry - 2 - Add Taxes and Rent.xlsx
@@ -730,124 +730,124 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>0.78397968171476839</c:v>
+                  <c:v>1.1804072389413525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31300538416027812</c:v>
+                  <c:v>0.45796896088016137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20938206279291893</c:v>
+                  <c:v>0.29902139086043084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16391290226085961</c:v>
+                  <c:v>0.22927826820476366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13837403412515145</c:v>
+                  <c:v>0.19010685570056221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12201978804482107</c:v>
+                  <c:v>0.16502404762501269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1106524911462359</c:v>
+                  <c:v>0.14759090778577078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10229421294428985</c:v>
+                  <c:v>0.13477342935143746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11816583584190807</c:v>
+                  <c:v>0.1472296664907107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11044697781133749</c:v>
+                  <c:v>0.13681179664279766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10419511329907022</c:v>
+                  <c:v>0.12837383371985236</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.902960380453428E-2</c:v>
+                  <c:v>0.12140205381852076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.4690990790108315E-2</c:v>
+                  <c:v>0.11554628202951069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0996326816691356E-2</c:v>
+                  <c:v>0.11055960567362587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7812908812523544E-2</c:v>
+                  <c:v>0.10626292374256605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.5042137139123564E-2</c:v>
+                  <c:v>0.10252316249284442</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2609221323316162E-2</c:v>
+                  <c:v>9.9239381918124356E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0456402343204156E-2</c:v>
+                  <c:v>9.6333628293804902E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8538365484940517E-2</c:v>
+                  <c:v>9.3744743197580999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6819059993795138E-2</c:v>
+                  <c:v>9.1424071192011305E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5269446651487146E-2</c:v>
+                  <c:v>8.9332419870947713E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3865872064305838E-2</c:v>
+                  <c:v>8.7437865738201725E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2588875240473652E-2</c:v>
+                  <c:v>8.5714143519877453E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1422298040783802E-2</c:v>
+                  <c:v>8.4139445595401485E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0352612908637938E-2</c:v>
+                  <c:v>8.2695514676927206E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9368408384038849E-2</c:v>
+                  <c:v>8.136694943984206E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8459990823527619E-2</c:v>
+                  <c:v>8.014066698915083E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.7619072815309475E-2</c:v>
+                  <c:v>7.900548233291306E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6838527043876911E-2</c:v>
+                  <c:v>7.7951776188762437E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.6112190107480831E-2</c:v>
+                  <c:v>7.697123020864996E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.5085920000000033E-2</c:v>
+                  <c:v>7.5707829333333379E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5085920000000047E-2</c:v>
+                  <c:v>7.5707829333333393E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5085920000000061E-2</c:v>
+                  <c:v>7.5707829333333407E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.5085920000000075E-2</c:v>
+                  <c:v>7.5707829333333421E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5085920000000033E-2</c:v>
+                  <c:v>7.5707829333333365E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.5085920000000019E-2</c:v>
+                  <c:v>7.5707829333333351E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5085920000000005E-2</c:v>
+                  <c:v>7.5707829333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.5085920000000089E-2</c:v>
+                  <c:v>7.5707829333333435E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.5085920000000033E-2</c:v>
+                  <c:v>7.5707829333333365E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.5085920000000103E-2</c:v>
+                  <c:v>7.5707829333333435E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,127 +1333,127 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-9683.8799999999974</c:v>
+                  <c:v>-6203.3999999999978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9338.9819999999963</c:v>
+                  <c:v>-5754.0875999999971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8983.7370599999977</c:v>
+                  <c:v>-5291.2958279999948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8617.8347717999932</c:v>
+                  <c:v>-4814.6203028399941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8240.9554149539981</c:v>
+                  <c:v>-4323.6445119252003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7852.7696774026153</c:v>
+                  <c:v>-3817.9394472829499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7452.9383677246897</c:v>
+                  <c:v>-3297.0632307014366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7041.1121187564313</c:v>
+                  <c:v>-2760.5607276224819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6616.9310823191245</c:v>
+                  <c:v>-2207.9631494511541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2699.5446147887014</c:v>
+                  <c:v>1841.6923560653067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2249.5309532323663</c:v>
+                  <c:v>2427.9431267472664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1786.0168818293369</c:v>
+                  <c:v>3031.7814205496834</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1308.5973882842118</c:v>
+                  <c:v>3653.7348631661735</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-816.85530993273824</c:v>
+                  <c:v>4294.3469090611597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-310.36096923072</c:v>
+                  <c:v>4954.1773163329981</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>211.32820169235856</c:v>
+                  <c:v>5633.8026358229872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>748.6680477431255</c:v>
+                  <c:v>6333.8167148976754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1302.1280891754268</c:v>
+                  <c:v>7054.8312163446117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1872.1919318506916</c:v>
+                  <c:v>7797.47615283495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2459.3576898062111</c:v>
+                  <c:v>8562.4004374200013</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3064.1384205003906</c:v>
+                  <c:v>9350.2724505426013</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3687.0625731154087</c:v>
+                  <c:v>10161.78062405888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4328.6744503088739</c:v>
+                  <c:v>10997.634042780646</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4989.5346838181376</c:v>
+                  <c:v>11858.563064064068</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5670.2207243326902</c:v>
+                  <c:v>12745.319955985995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6371.3273460626697</c:v>
+                  <c:v>13658.679554665578</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7093.4671664445468</c:v>
+                  <c:v>14599.439941305542</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7837.2711814378818</c:v>
+                  <c:v>15568.423139544702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8603.3893168810155</c:v>
+                  <c:v>16566.475833731045</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9392.4909963874379</c:v>
+                  <c:v>17594.470108742971</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10205.265726279062</c:v>
+                  <c:v>18653.304212005267</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28742.423698067436</c:v>
+                  <c:v>37443.903338365424</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29604.696409009463</c:v>
+                  <c:v>38567.220438516393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30492.837301279753</c:v>
+                  <c:v>39724.237051671887</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31407.622420318141</c:v>
+                  <c:v>40915.964163222045</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32349.851092927689</c:v>
+                  <c:v>42143.4430881187</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33320.346625715523</c:v>
+                  <c:v>43407.74638076227</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34319.957024486983</c:v>
+                  <c:v>44709.978772185132</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35349.555735221598</c:v>
+                  <c:v>46051.278135350702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36410.042407278248</c:v>
+                  <c:v>47432.816479411216</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37502.343679496596</c:v>
+                  <c:v>48855.800973793557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3186,8 +3186,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E2" s="5">
-        <f>-2062.95-C2</f>
-        <v>-587.94999999999982</v>
+        <f>-2062.95-C2-D2</f>
+        <v>-297.9099999999998</v>
       </c>
       <c r="F2" s="5">
         <v>-454</v>
@@ -3218,7 +3218,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="8">
         <f>12*(C2+D2+E2+F2+G2)</f>
-        <v>-9683.8799999999974</v>
+        <v>-6203.3999999999978</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="E3" s="5">
         <f>E2*(1+B3)</f>
-        <v>-605.58849999999984</v>
+        <v>-306.84729999999979</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F34" si="4">F2*(1+B3)</f>
@@ -3269,15 +3269,15 @@
       </c>
       <c r="M3" s="8">
         <f>L3-L2+12*(C3+D3+E3+F3+G3)</f>
-        <v>7089.528261746651</v>
+        <v>10674.42266174665</v>
       </c>
       <c r="N3" s="13">
         <f>M3/L2</f>
-        <v>0.78397968171476839</v>
+        <v>1.1804072389413525</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O66" si="6">12*(C3+D3+E3+F3+G3)</f>
-        <v>-9338.9819999999963</v>
+        <v>-5754.0875999999971</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E67" si="7">E3*(1+B4)</f>
-        <v>-623.75615499999981</v>
+        <v>-316.0527189999998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="4"/>
@@ -3328,15 +3328,15 @@
       </c>
       <c r="M4" s="8">
         <f t="shared" ref="M4:M67" si="9">L4-L3+12*(C4+D4+E4+F4+G4)</f>
-        <v>7972.7198546204763</v>
+        <v>11665.161086620479</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" ref="N4:N67" si="10">M4/L3</f>
-        <v>0.31300538416027812</v>
+        <v>0.45796896088016137</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="6"/>
-        <v>-8983.7370599999977</v>
+        <v>-5291.2958279999948</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="7"/>
-        <v>-642.46883964999984</v>
+        <v>-325.5343005699998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="4"/>
@@ -3387,15 +3387,15 @@
       </c>
       <c r="M5" s="8">
         <f t="shared" si="9"/>
-        <v>8883.6552874980043</v>
+        <v>12686.869756458003</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" si="10"/>
-        <v>0.20938206279291893</v>
+        <v>0.29902139086043084</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="6"/>
-        <v>-8617.8347717999932</v>
+        <v>-4814.6203028399941</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="7"/>
-        <v>-661.74290483949983</v>
+        <v>-335.30032958709978</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="4"/>
@@ -3446,15 +3446,15 @@
       </c>
       <c r="M6" s="8">
         <f t="shared" si="9"/>
-        <v>9823.2112664159431</v>
+        <v>13740.522169444741</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="10"/>
-        <v>0.16391290226085961</v>
+        <v>0.22927826820476366</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="6"/>
-        <v>-8240.9554149539981</v>
+        <v>-4323.6445119252003</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="7"/>
-        <v>-681.59519198468479</v>
+        <v>-345.35933947471278</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
@@ -3505,15 +3505,15 @@
       </c>
       <c r="M7" s="8">
         <f t="shared" si="9"/>
-        <v>10792.292377440037</v>
+        <v>14827.122607559702</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="10"/>
-        <v>0.13837403412515145</v>
+        <v>0.19010685570056221</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="6"/>
-        <v>-7852.7696774026153</v>
+        <v>-3817.9394472829499</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="7"/>
-        <v>-702.0430477442253</v>
+        <v>-355.72011965895416</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="4"/>
@@ -3565,15 +3565,15 @@
       </c>
       <c r="M8" s="8">
         <f t="shared" si="9"/>
-        <v>11791.831979218541</v>
+        <v>15947.707116241794</v>
       </c>
       <c r="N8" s="13">
         <f t="shared" si="10"/>
-        <v>0.12201978804482107</v>
+        <v>0.16502404762501269</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="6"/>
-        <v>-7452.9383677246897</v>
+        <v>-3297.0632307014366</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="7"/>
-        <v>-723.10433917655212</v>
+        <v>-366.39172324872277</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="4"/>
@@ -3625,15 +3625,15 @@
       </c>
       <c r="M9" s="8">
         <f t="shared" si="9"/>
-        <v>12822.79312431355</v>
+        <v>17103.344515447498</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="10"/>
-        <v>0.1106524911462359</v>
+        <v>0.14759090778577078</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" si="6"/>
-        <v>-7041.1121187564313</v>
+        <v>-2760.5607276224819</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="7"/>
-        <v>-744.79746935184869</v>
+        <v>-377.38347494618444</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="4"/>
@@ -3685,15 +3685,15 @@
       </c>
       <c r="M10" s="8">
         <f t="shared" si="9"/>
-        <v>13886.169510237576</v>
+        <v>18295.137443105545</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" si="10"/>
-        <v>0.10229421294428985</v>
+        <v>0.13477342935143746</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" si="6"/>
-        <v>-6616.9310823191245</v>
+        <v>-2207.9631494511541</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="7"/>
-        <v>-767.14139343240413</v>
+        <v>-388.70497919457</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
@@ -3745,15 +3745,15 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" si="9"/>
-        <v>18463.466461164728</v>
+        <v>23004.703432018738</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="10"/>
-        <v>0.11816583584190807</v>
+        <v>0.1472296664907107</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="6"/>
-        <v>-2699.5446147887014</v>
+        <v>1841.6923560653067</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="7"/>
-        <v>-790.15563523537628</v>
+        <v>-400.36612857040711</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
@@ -3805,15 +3805,15 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" si="9"/>
-        <v>19594.781941310423</v>
+        <v>24272.256021290057</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="10"/>
-        <v>0.11044697781133749</v>
+        <v>0.13681179664279766</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="6"/>
-        <v>-2249.5309532323663</v>
+        <v>2427.9431267472664</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="7"/>
-        <v>-813.8603042924376</v>
+        <v>-412.37711242751936</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
@@ -3865,15 +3865,15 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" si="9"/>
-        <v>20761.687601010424</v>
+        <v>25579.485903389446</v>
       </c>
       <c r="N13" s="13">
         <f t="shared" si="10"/>
-        <v>0.10419511329907022</v>
+        <v>0.12837383371985236</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="6"/>
-        <v>-1786.0168818293369</v>
+        <v>3031.7814205496834</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="7"/>
-        <v>-838.27611342121077</v>
+        <v>-424.74842580034493</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
@@ -3925,15 +3925,15 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" si="9"/>
-        <v>21965.309856559161</v>
+        <v>26927.642108009546</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" si="10"/>
-        <v>9.902960380453428E-2</v>
+        <v>0.12140205381852076</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="6"/>
-        <v>-1308.5973882842118</v>
+        <v>3653.7348631661735</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="7"/>
-        <v>-863.42439682384713</v>
+        <v>-437.49087857435529</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
@@ -3985,15 +3985,15 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" si="9"/>
-        <v>23206.811004908392</v>
+        <v>28318.013223902293</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" si="10"/>
-        <v>9.4690990790108315E-2</v>
+        <v>0.11554628202951069</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="6"/>
-        <v>-816.85530993273824</v>
+        <v>4294.3469090611597</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="7"/>
-        <v>-889.32712872856257</v>
+        <v>-450.61560493158595</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
@@ -4045,15 +4045,15 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" si="9"/>
-        <v>24487.390374355993</v>
+        <v>29751.928659919715</v>
       </c>
       <c r="N16" s="13">
         <f t="shared" si="10"/>
-        <v>9.0996326816691356E-2</v>
+        <v>0.11055960567362587</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="6"/>
-        <v>-310.36096923072</v>
+        <v>4954.1773163329981</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="7"/>
-        <v>-916.0069425904195</v>
+        <v>-464.13407307953355</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="4"/>
@@ -4105,15 +4105,15 @@
       </c>
       <c r="M17" s="8">
         <f t="shared" si="9"/>
-        <v>25808.285512398561</v>
+        <v>31230.75994652919</v>
       </c>
       <c r="N17" s="13">
         <f t="shared" si="10"/>
-        <v>8.7812908812523544E-2</v>
+        <v>0.10626292374256605</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="6"/>
-        <v>211.32820169235856</v>
+        <v>5633.8026358229872</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="7"/>
-        <v>-943.48715086813206</v>
+        <v>-478.05809527191957</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
@@ -4165,15 +4165,15 @@
       </c>
       <c r="M18" s="8">
         <f t="shared" si="9"/>
-        <v>27170.773411952749</v>
+        <v>32755.922079107298</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" si="10"/>
-        <v>8.5042137139123564E-2</v>
+        <v>0.10252316249284442</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" si="6"/>
-        <v>748.6680477431255</v>
+        <v>6333.8167148976754</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="7"/>
-        <v>-971.79176539417608</v>
+        <v>-492.39983813007717</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
@@ -4225,15 +4225,15 @@
       </c>
       <c r="M19" s="8">
         <f t="shared" si="9"/>
-        <v>28576.171777199415</v>
+        <v>34328.874904368597</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="10"/>
-        <v>8.2609221323316162E-2</v>
+        <v>9.9239381918124356E-2</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" si="6"/>
-        <v>1302.1280891754268</v>
+        <v>7054.8312163446117</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="7"/>
-        <v>-1000.9455183560013</v>
+        <v>-507.17183327397947</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -4285,15 +4285,15 @@
       </c>
       <c r="M20" s="8">
         <f t="shared" si="9"/>
-        <v>30025.840330332408</v>
+        <v>35951.124551316665</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" si="10"/>
-        <v>8.0456402343204156E-2</v>
+        <v>9.6333628293804902E-2</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="6"/>
-        <v>1872.1919318506916</v>
+        <v>7797.47615283495</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="7"/>
-        <v>-1030.9738839066815</v>
+        <v>-522.38698827219889</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
@@ -4345,15 +4345,15 @@
       </c>
       <c r="M21" s="8">
         <f t="shared" si="9"/>
-        <v>31521.182160552598</v>
+        <v>37624.22490816639</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="10"/>
-        <v>7.8538365484940517E-2</v>
+        <v>9.3744743197580999E-2</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="6"/>
-        <v>2459.3576898062111</v>
+        <v>8562.4004374200013</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="7"/>
-        <v>-1061.9031004238821</v>
+        <v>-538.05859792036483</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
@@ -4405,15 +4405,15 @@
       </c>
       <c r="M22" s="8">
         <f t="shared" si="9"/>
-        <v>33063.645116672684</v>
+        <v>39349.779146714893</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="10"/>
-        <v>7.6819059993795138E-2</v>
+        <v>9.1424071192011305E-2</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="6"/>
-        <v>3064.1384205003906</v>
+        <v>9350.2724505426013</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="7"/>
-        <v>-1093.7601934365985</v>
+        <v>-554.20035585797575</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
@@ -4465,15 +4465,15 @@
       </c>
       <c r="M23" s="8">
         <f t="shared" si="9"/>
-        <v>34654.723244762346</v>
+        <v>41129.441295705823</v>
       </c>
       <c r="N23" s="13">
         <f t="shared" si="10"/>
-        <v>7.5269446651487146E-2</v>
+        <v>8.9332419870947713E-2</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="6"/>
-        <v>3687.0625731154087</v>
+        <v>10161.78062405888</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="7"/>
-        <v>-1126.5729992396964</v>
+        <v>-570.82636653371503</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
@@ -4525,15 +4525,15 @@
       </c>
       <c r="M24" s="8">
         <f t="shared" si="9"/>
-        <v>36295.958272292657</v>
+        <v>42964.917864764429</v>
       </c>
       <c r="N24" s="13">
         <f t="shared" si="10"/>
-        <v>7.3865872064305838E-2</v>
+        <v>8.7437865738201725E-2</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="6"/>
-        <v>4328.6744503088739</v>
+        <v>10997.634042780646</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="7"/>
-        <v>-1160.3701892168874</v>
+        <v>-587.95115752972652</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
@@ -4585,15 +4585,15 @@
       </c>
       <c r="M25" s="8">
         <f t="shared" si="9"/>
-        <v>37988.941140302071</v>
+        <v>44857.969520548002</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="10"/>
-        <v>7.2588875240473652E-2</v>
+        <v>8.5714143519877453E-2</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="6"/>
-        <v>4989.5346838181376</v>
+        <v>11858.563064064068</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="7"/>
-        <v>-1195.1812948933941</v>
+        <v>-605.58969225561827</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
@@ -4645,15 +4645,15 @@
       </c>
       <c r="M26" s="8">
         <f t="shared" si="9"/>
-        <v>39735.313585142569</v>
+        <v>46810.41281679587</v>
       </c>
       <c r="N26" s="13">
         <f t="shared" si="10"/>
-        <v>7.1422298040783802E-2</v>
+        <v>8.4139445595401485E-2</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="6"/>
-        <v>5670.2207243326902</v>
+        <v>12745.319955985995</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="7"/>
-        <v>-1231.036733740196</v>
+        <v>-623.75738302328682</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
@@ -4705,15 +4705,15 @@
       </c>
       <c r="M27" s="8">
         <f t="shared" si="9"/>
-        <v>41536.769771425199</v>
+        <v>48824.121980028111</v>
       </c>
       <c r="N27" s="13">
         <f t="shared" si="10"/>
-        <v>7.0352612908637938E-2</v>
+        <v>8.2695514676927206E-2</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="6"/>
-        <v>6371.3273460626697</v>
+        <v>13658.679554665578</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="7"/>
-        <v>-1267.9678357524019</v>
+        <v>-642.47010451398546</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
@@ -4765,15 +4765,15 @@
       </c>
       <c r="M28" s="8">
         <f t="shared" si="9"/>
-        <v>43395.057977836725</v>
+        <v>50901.030752697719</v>
       </c>
       <c r="N28" s="13">
         <f t="shared" si="10"/>
-        <v>6.9368408384038849E-2</v>
+        <v>8.136694943984206E-2</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="6"/>
-        <v>7093.4671664445468</v>
+        <v>14599.439941305542</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="7"/>
-        <v>-1306.0068708249739</v>
+        <v>-661.7442076494051</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="4"/>
@@ -4825,15 +4825,15 @@
       </c>
       <c r="M29" s="8">
         <f t="shared" si="9"/>
-        <v>45311.982337543974</v>
+        <v>53043.134295650787</v>
       </c>
       <c r="N29" s="13">
         <f t="shared" si="10"/>
-        <v>6.8459990823527619E-2</v>
+        <v>8.014066698915083E-2</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="6"/>
-        <v>7837.2711814378818</v>
+        <v>15568.423139544702</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="7"/>
-        <v>-1345.1870769497232</v>
+        <v>-681.59653387888727</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="4"/>
@@ -4885,15 +4885,15 @@
       </c>
       <c r="M30" s="8">
         <f t="shared" si="9"/>
-        <v>47289.404634975421</v>
+        <v>55252.491151825452</v>
       </c>
       <c r="N30" s="13">
         <f t="shared" si="10"/>
-        <v>6.7619072815309475E-2</v>
+        <v>7.900548233291306E-2</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="6"/>
-        <v>8603.3893168810155</v>
+        <v>16566.475833731045</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="7"/>
-        <v>-1385.542689258215</v>
+        <v>-702.04442989525387</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="4"/>
@@ -4945,15 +4945,15 @@
       </c>
       <c r="M31" s="8">
         <f t="shared" si="9"/>
-        <v>49329.246160811745</v>
+        <v>57531.225273167278</v>
       </c>
       <c r="N31" s="13">
         <f t="shared" si="10"/>
-        <v>6.6838527043876911E-2</v>
+        <v>7.7951776188762437E-2</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="6"/>
-        <v>9392.4909963874379</v>
+        <v>17594.470108742971</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="7"/>
-        <v>-1427.1089699359616</v>
+        <v>-723.10576279211148</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="4"/>
@@ -5005,15 +5005,15 @@
       </c>
       <c r="M32" s="8">
         <f t="shared" si="9"/>
-        <v>51433.489627090807</v>
+        <v>59881.528112817017</v>
       </c>
       <c r="N32" s="13">
         <f t="shared" si="10"/>
-        <v>6.6112190107480831E-2</v>
+        <v>7.697123020864996E-2</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="6"/>
-        <v>10205.265726279062</v>
+        <v>18653.304212005267</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="7"/>
-        <v>-1469.9222390340406</v>
+        <v>-744.79893567587487</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="4"/>
@@ -5055,15 +5055,15 @@
       </c>
       <c r="M33" s="8">
         <f t="shared" si="9"/>
-        <v>53318.45621886279</v>
+        <v>62019.935859160782</v>
       </c>
       <c r="N33" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333379E-2</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="6"/>
-        <v>28742.423698067436</v>
+        <v>37443.903338365424</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="7"/>
-        <v>-1514.0199062050617</v>
+        <v>-767.14290374615109</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="4"/>
@@ -5105,15 +5105,15 @@
       </c>
       <c r="M34" s="8">
         <f t="shared" si="9"/>
-        <v>54918.009905428691</v>
+        <v>63880.533934935622</v>
       </c>
       <c r="N34" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000047E-2</v>
+        <v>7.5707829333333393E-2</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="6"/>
-        <v>29604.696409009463</v>
+        <v>38567.220438516393</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="7"/>
-        <v>-1559.4405033912135</v>
+        <v>-790.15719085853561</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
@@ -5155,15 +5155,15 @@
       </c>
       <c r="M35" s="8">
         <f t="shared" si="9"/>
-        <v>56565.550202591563</v>
+        <v>65796.949952983705</v>
       </c>
       <c r="N35" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000061E-2</v>
+        <v>7.5707829333333407E-2</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="6"/>
-        <v>30492.837301279753</v>
+        <v>39724.237051671887</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="7"/>
-        <v>-1606.22371849295</v>
+        <v>-813.86190658429166</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="12"/>
@@ -5205,15 +5205,15 @@
       </c>
       <c r="M36" s="8">
         <f t="shared" si="9"/>
-        <v>58262.516708669318</v>
+        <v>67770.858451573222</v>
       </c>
       <c r="N36" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
+        <v>7.5707829333333421E-2</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="6"/>
-        <v>31407.622420318141</v>
+        <v>40915.964163222045</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" si="7"/>
-        <v>-1654.4104300477386</v>
+        <v>-838.27776378182045</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="12"/>
@@ -5255,15 +5255,15 @@
       </c>
       <c r="M37" s="8">
         <f t="shared" si="9"/>
-        <v>60010.392209929363</v>
+        <v>69803.984205120374</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333365E-2</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="6"/>
-        <v>32349.851092927689</v>
+        <v>42143.4430881187</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" si="7"/>
-        <v>-1704.0427429491708</v>
+        <v>-863.42609669527508</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="12"/>
@@ -5305,15 +5305,15 @@
       </c>
       <c r="M38" s="8">
         <f t="shared" si="9"/>
-        <v>61810.703976227232</v>
+        <v>71898.103731273979</v>
       </c>
       <c r="N38" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000019E-2</v>
+        <v>7.5707829333333351E-2</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="6"/>
-        <v>33320.346625715523</v>
+        <v>43407.74638076227</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="7"/>
-        <v>-1755.164025237646</v>
+        <v>-889.32887959613333</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="12"/>
@@ -5355,15 +5355,15 @@
       </c>
       <c r="M39" s="8">
         <f t="shared" si="9"/>
-        <v>63665.025095514036</v>
+        <v>74055.046843212185</v>
       </c>
       <c r="N39" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000005E-2</v>
+        <v>7.5707829333333337E-2</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="6"/>
-        <v>34319.957024486983</v>
+        <v>44709.978772185132</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="7"/>
-        <v>-1807.8189459947755</v>
+        <v>-916.00874598401731</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="12"/>
@@ -5405,15 +5405,15 @@
       </c>
       <c r="M40" s="8">
         <f t="shared" si="9"/>
-        <v>65574.975848379545</v>
+        <v>76276.698248508648</v>
       </c>
       <c r="N40" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000089E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="6"/>
-        <v>35349.555735221598</v>
+        <v>46051.278135350702</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="7"/>
-        <v>-1862.0535143746188</v>
+        <v>-943.48900836353789</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="12"/>
@@ -5455,15 +5455,15 @@
       </c>
       <c r="M41" s="8">
         <f t="shared" si="9"/>
-        <v>67542.225123830882</v>
+        <v>78564.999195963843</v>
       </c>
       <c r="N41" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333365E-2</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="6"/>
-        <v>36410.042407278248</v>
+        <v>47432.816479411216</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="7"/>
-        <v>-1917.9151198058573</v>
+        <v>-971.79367861444405</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="12"/>
@@ -5505,15 +5505,15 @@
       </c>
       <c r="M42" s="8">
         <f t="shared" si="9"/>
-        <v>69568.491877545879</v>
+        <v>80921.949171842833</v>
       </c>
       <c r="N42" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="6"/>
-        <v>37502.343679496596</v>
+        <v>48855.800973793557</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" si="7"/>
-        <v>-1975.4525734000331</v>
+        <v>-1000.9474889728774</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
@@ -5555,15 +5555,15 @@
       </c>
       <c r="M43" s="8">
         <f t="shared" si="9"/>
-        <v>71655.546633872174</v>
+        <v>83349.607646998047</v>
       </c>
       <c r="N43" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000019E-2</v>
+        <v>7.5707829333333365E-2</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="6"/>
-        <v>38627.41398988149</v>
+        <v>50321.475003007363</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="7"/>
-        <v>-2034.7161506020341</v>
+        <v>-1030.9759136420637</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
@@ -5605,15 +5605,15 @@
       </c>
       <c r="M44" s="8">
         <f t="shared" si="9"/>
-        <v>73805.213032888409</v>
+        <v>85850.095876408057</v>
       </c>
       <c r="N44" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
+        <v>7.5707829333333421E-2</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="6"/>
-        <v>39786.236409577934</v>
+        <v>51831.119253097582</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" si="7"/>
-        <v>-2095.7576351200951</v>
+        <v>-1061.9051910513256</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
@@ -5655,15 +5655,15 @@
       </c>
       <c r="M45" s="8">
         <f t="shared" si="9"/>
-        <v>76019.369423875018</v>
+        <v>88425.598752700258</v>
       </c>
       <c r="N45" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333379E-2</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="6"/>
-        <v>40979.823501865278</v>
+        <v>53386.052830690518</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="7"/>
-        <v>-2158.6303641736981</v>
+        <v>-1093.7623467828653</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
@@ -5705,15 +5705,15 @@
       </c>
       <c r="M46" s="8">
         <f t="shared" si="9"/>
-        <v>78299.950506591354</v>
+        <v>91078.366715281343</v>
       </c>
       <c r="N46" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
+        <v>7.5707829333333448E-2</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="6"/>
-        <v>42209.218206921243</v>
+        <v>54987.634415611232</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="7"/>
-        <v>-2223.3892750989089</v>
+        <v>-1126.5752171863512</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
@@ -5755,15 +5755,15 @@
       </c>
       <c r="M47" s="8">
         <f t="shared" si="9"/>
-        <v>80648.949021789042</v>
+        <v>93810.717716739746</v>
       </c>
       <c r="N47" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000061E-2</v>
+        <v>7.5707829333333407E-2</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="6"/>
-        <v>43475.494753128885</v>
+        <v>56637.263448079582</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="7"/>
-        <v>-2290.0909533518761</v>
+        <v>-1160.3724737019418</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="12"/>
@@ -5805,15 +5805,15 @@
       </c>
       <c r="M48" s="8">
         <f t="shared" si="9"/>
-        <v>83068.417492442633</v>
+        <v>96625.039248241839</v>
       </c>
       <c r="N48" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
+        <v>7.5707829333333324E-2</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="6"/>
-        <v>44779.75959572276</v>
+        <v>58336.381351521966</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" si="7"/>
-        <v>-2358.7936819524325</v>
+        <v>-1195.183647913</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
@@ -5855,15 +5855,15 @@
       </c>
       <c r="M49" s="8">
         <f t="shared" si="9"/>
-        <v>85560.470017216066</v>
+        <v>99523.790425689251</v>
       </c>
       <c r="N49" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
+        <v>7.5707829333333448E-2</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="6"/>
-        <v>46123.152383594439</v>
+        <v>60086.472792067631</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" si="7"/>
-        <v>-2429.5574924110056</v>
+        <v>-1231.03915735039</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="12"/>
@@ -5905,15 +5905,15 @@
       </c>
       <c r="M50" s="8">
         <f t="shared" si="9"/>
-        <v>88127.284117732517</v>
+        <v>102509.50413845992</v>
       </c>
       <c r="N50" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="6"/>
-        <v>47506.846955102264</v>
+        <v>61889.066975829657</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="7"/>
-        <v>-2502.4442171833357</v>
+        <v>-1267.9703320709018</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="12"/>
@@ -5955,15 +5955,15 @@
       </c>
       <c r="M51" s="8">
         <f t="shared" si="9"/>
-        <v>90771.10264126437</v>
+        <v>105584.78926261357</v>
       </c>
       <c r="N51" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999978E-2</v>
+        <v>7.5707829333333324E-2</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="6"/>
-        <v>48932.052363755342</v>
+        <v>63745.738985104545</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" si="7"/>
-        <v>-2577.5175436988357</v>
+        <v>-1306.0094420330288</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="12"/>
@@ -6005,15 +6005,15 @@
       </c>
       <c r="M52" s="8">
         <f t="shared" si="9"/>
-        <v>93494.2357205023</v>
+        <v>108752.33294049196</v>
       </c>
       <c r="N52" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999978E-2</v>
+        <v>7.570782933333331E-2</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="6"/>
-        <v>50400.013934668001</v>
+        <v>65658.111154657672</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" si="7"/>
-        <v>-2654.8430700098006</v>
+        <v>-1345.1897252940196</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="12"/>
@@ -6055,15 +6055,15 @@
       </c>
       <c r="M53" s="8">
         <f t="shared" si="9"/>
-        <v>96299.062792117387</v>
+        <v>112014.90292870675</v>
       </c>
       <c r="N53" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
+        <v>7.5707829333333337E-2</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="6"/>
-        <v>51912.014352708036</v>
+        <v>67627.854489297402</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="7"/>
-        <v>-2734.4883621100948</v>
+        <v>-1385.5454170528401</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="12"/>
@@ -6105,15 +6105,15 @@
       </c>
       <c r="M54" s="8">
         <f t="shared" si="9"/>
-        <v>99188.034675880917</v>
+        <v>115375.35001656797</v>
       </c>
       <c r="N54" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000005E-2</v>
+        <v>7.5707829333333337E-2</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="6"/>
-        <v>53469.37478328927</v>
+        <v>69656.690123976325</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" si="7"/>
-        <v>-2816.5230129733977</v>
+        <v>-1427.1117795644254</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="12"/>
@@ -6155,15 +6155,15 @@
       </c>
       <c r="M55" s="8">
         <f t="shared" si="9"/>
-        <v>102163.67571615739</v>
+        <v>118836.61051706504</v>
       </c>
       <c r="N55" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333365E-2</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="6"/>
-        <v>55073.45602678795</v>
+        <v>71746.390827695606</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" si="7"/>
-        <v>-2901.0187033625998</v>
+        <v>-1469.9251329513581</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="12"/>
@@ -6205,15 +6205,15 @@
       </c>
       <c r="M56" s="8">
         <f t="shared" si="9"/>
-        <v>105228.58598764212</v>
+        <v>122401.70883257702</v>
       </c>
       <c r="N56" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333379E-2</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="6"/>
-        <v>56725.659707591578</v>
+        <v>73898.782552526478</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" si="7"/>
-        <v>-2988.0492644634778</v>
+        <v>-1514.0228869398989</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="12"/>
@@ -6255,15 +6255,15 @@
       </c>
       <c r="M57" s="8">
         <f t="shared" si="9"/>
-        <v>108385.44356727127</v>
+        <v>126073.76009755422</v>
       </c>
       <c r="N57" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999964E-2</v>
+        <v>7.570782933333331E-2</v>
       </c>
       <c r="O57" s="8">
         <f t="shared" si="6"/>
-        <v>58427.429498819329</v>
+        <v>76115.746029102273</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" si="7"/>
-        <v>-3077.6907423973821</v>
+        <v>-1559.4435735480959</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="12"/>
@@ -6305,15 +6305,15 @@
       </c>
       <c r="M58" s="8">
         <f t="shared" si="9"/>
-        <v>111637.0068742896</v>
+        <v>129855.97290048102</v>
       </c>
       <c r="N58" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
+        <v>7.5707829333333407E-2</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="6"/>
-        <v>60180.252383783925</v>
+        <v>78399.21840997535</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" si="7"/>
-        <v>-3170.0214646693034</v>
+        <v>-1606.2268807545388</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="12"/>
@@ -6355,15 +6355,15 @@
       </c>
       <c r="M59" s="8">
         <f t="shared" si="9"/>
-        <v>114986.11708051813</v>
+        <v>133751.65208749531</v>
       </c>
       <c r="N59" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999978E-2</v>
+        <v>7.5707829333333324E-2</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" si="6"/>
-        <v>61985.659955297451</v>
+        <v>80751.194962274632</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" si="7"/>
-        <v>-3265.1221086093828</v>
+        <v>-1654.413687177175</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="12"/>
@@ -6405,15 +6405,15 @@
       </c>
       <c r="M60" s="8">
         <f t="shared" si="9"/>
-        <v>118435.70059293386</v>
+        <v>137764.20165012038</v>
       </c>
       <c r="N60" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000089E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" si="6"/>
-        <v>63845.229753956366</v>
+        <v>83173.730811142872</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" si="7"/>
-        <v>-3363.0757718676646</v>
+        <v>-1704.0460977924904</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="12"/>
@@ -6455,15 +6455,15 @@
       </c>
       <c r="M61" s="8">
         <f t="shared" si="9"/>
-        <v>121988.77161072177</v>
+        <v>141897.12769962384</v>
       </c>
       <c r="N61" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000019E-2</v>
+        <v>7.5707829333333351E-2</v>
       </c>
       <c r="O61" s="8">
         <f t="shared" si="6"/>
-        <v>65760.586646575073</v>
+        <v>85668.942735477147</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" si="7"/>
-        <v>-3463.9680450236947</v>
+        <v>-1755.1674807262652</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="12"/>
@@ -6505,15 +6505,15 @@
       </c>
       <c r="M62" s="8">
         <f t="shared" si="9"/>
-        <v>125648.4347590433</v>
+        <v>146154.04153061245</v>
       </c>
       <c r="N62" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999964E-2</v>
+        <v>7.5707829333333296E-2</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="6"/>
-        <v>67733.404245972313</v>
+        <v>88239.011017541474</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" si="7"/>
-        <v>-3567.8870863744055</v>
+        <v>-1807.8225051480533</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="12"/>
@@ -6555,15 +6555,15 @@
       </c>
       <c r="M63" s="8">
         <f t="shared" si="9"/>
-        <v>129417.88780181474</v>
+        <v>150538.66277653095</v>
       </c>
       <c r="N63" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
+        <v>7.5707829333333365E-2</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="6"/>
-        <v>69765.406373351492</v>
+        <v>90886.181348067708</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" si="7"/>
-        <v>-3674.9236989656379</v>
+        <v>-1862.057180302495</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="12"/>
@@ -6605,15 +6605,15 @@
       </c>
       <c r="M64" s="8">
         <f t="shared" si="9"/>
-        <v>133300.42443586921</v>
+        <v>155054.82265982692</v>
       </c>
       <c r="N64" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000047E-2</v>
+        <v>7.5707829333333379E-2</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="6"/>
-        <v>71858.368564552031</v>
+        <v>93612.766788509762</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="7"/>
-        <v>-3785.1714099346073</v>
+        <v>-1917.9188957115698</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="12"/>
@@ -6655,15 +6655,15 @@
       </c>
       <c r="M65" s="8">
         <f t="shared" si="9"/>
-        <v>137299.43716894541</v>
+        <v>159706.46733962186</v>
       </c>
       <c r="N65" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="6"/>
-        <v>74014.119621488586</v>
+        <v>96421.149792165044</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" si="7"/>
-        <v>-3898.7265522326456</v>
+        <v>-1975.4564625829169</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="12"/>
@@ -6705,15 +6705,15 @@
       </c>
       <c r="M66" s="8">
         <f t="shared" si="9"/>
-        <v>141418.42028401355</v>
+        <v>164497.66135981027</v>
       </c>
       <c r="N66" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
+        <v>7.5707829333333324E-2</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="6"/>
-        <v>76234.54321013327</v>
+        <v>99313.78428593</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="7"/>
-        <v>-4015.6883487996251</v>
+        <v>-2034.7201564604045</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="12"/>
@@ -6755,15 +6755,15 @@
       </c>
       <c r="M67" s="8">
         <f t="shared" si="9"/>
-        <v>145660.97289253396</v>
+        <v>169432.5912006046</v>
       </c>
       <c r="N67" s="13">
         <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
+        <v>7.5707829333333324E-2</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" ref="O67:O71" si="15">12*(C67+D67+E67+F67+G67)</f>
-        <v>78521.579506437265</v>
+        <v>102293.1978145079</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E71" si="16">E67*(1+B68)</f>
-        <v>-4136.1589992636136</v>
+        <v>-2095.7617611542169</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
@@ -6805,15 +6805,15 @@
       </c>
       <c r="M68" s="8">
         <f t="shared" ref="M68:M71" si="18">L68-L67+12*(C68+D68+E68+F68+G68)</f>
-        <v>150030.80207931023</v>
+        <v>174515.56893662299</v>
       </c>
       <c r="N68" s="13">
         <f t="shared" ref="N68:N71" si="19">M68/L67</f>
-        <v>6.5085920000000103E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="15"/>
-        <v>80877.226891630387</v>
+        <v>105361.99374894313</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="16"/>
-        <v>-4260.2437692415224</v>
+        <v>-2158.6346139888433</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="12"/>
@@ -6855,15 +6855,15 @@
       </c>
       <c r="M69" s="8">
         <f t="shared" si="18"/>
-        <v>154531.72614168935</v>
+        <v>179751.03600472148</v>
       </c>
       <c r="N69" s="13">
         <f t="shared" si="19"/>
-        <v>6.5085920000000019E-2</v>
+        <v>7.5707829333333351E-2</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="15"/>
-        <v>83303.543698379304</v>
+        <v>108522.85356141144</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="16"/>
-        <v>-4388.0510823187678</v>
+        <v>-2223.3936524085088</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="12"/>
@@ -6905,15 +6905,15 @@
       </c>
       <c r="M70" s="8">
         <f t="shared" si="18"/>
-        <v>159167.67792593996</v>
+        <v>185143.56708486308</v>
       </c>
       <c r="N70" s="13">
         <f t="shared" si="19"/>
-        <v>6.5085919999999992E-2</v>
+        <v>7.5707829333333324E-2</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="15"/>
-        <v>85802.650009330668</v>
+        <v>111778.53916825377</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="16"/>
-        <v>-4519.6926147883314</v>
+        <v>-2290.095461980764</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="12"/>
@@ -6955,15 +6955,15 @@
       </c>
       <c r="M71" s="8">
         <f t="shared" si="18"/>
-        <v>163942.70826371844</v>
+        <v>190697.87409740925</v>
       </c>
       <c r="N71" s="13">
         <f t="shared" si="19"/>
-        <v>6.5085920000000089E-2</v>
+        <v>7.5707829333333435E-2</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="15"/>
-        <v>88376.729509610595</v>
+        <v>115131.89534330141</v>
       </c>
     </row>
   </sheetData>
